--- a/output/petrodr01.xlsx
+++ b/output/petrodr01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
   <si>
     <t>Season</t>
   </si>
@@ -191,12 +191,6 @@
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -2668,3971 +2662,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2">
-        <v>77</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>967</v>
-      </c>
-      <c r="J2">
-        <v>7.7</v>
-      </c>
-      <c r="K2">
-        <v>15.9</v>
-      </c>
-      <c r="L2">
-        <v>0.485</v>
-      </c>
-      <c r="M2">
-        <v>1.3</v>
-      </c>
-      <c r="N2">
-        <v>2.8</v>
-      </c>
-      <c r="O2">
-        <v>0.459</v>
-      </c>
-      <c r="P2">
-        <v>6.4</v>
-      </c>
-      <c r="Q2">
-        <v>13.1</v>
-      </c>
-      <c r="R2">
-        <v>0.49</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>6</v>
-      </c>
-      <c r="U2">
-        <v>0.8440000000000001</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>2.3</v>
-      </c>
-      <c r="X2">
-        <v>4.1</v>
-      </c>
-      <c r="Y2">
-        <v>4.3</v>
-      </c>
-      <c r="Z2">
-        <v>0.9</v>
-      </c>
-      <c r="AA2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2">
-        <v>3.6</v>
-      </c>
-      <c r="AC2">
-        <v>5</v>
-      </c>
-      <c r="AD2">
-        <v>21.7</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>253</v>
-      </c>
-      <c r="J3">
-        <v>6.8</v>
-      </c>
-      <c r="K3">
-        <v>15.5</v>
-      </c>
-      <c r="L3">
-        <v>0.44</v>
-      </c>
-      <c r="M3">
-        <v>0.7</v>
-      </c>
-      <c r="N3">
-        <v>2.3</v>
-      </c>
-      <c r="O3">
-        <v>0.313</v>
-      </c>
-      <c r="P3">
-        <v>6.1</v>
-      </c>
-      <c r="Q3">
-        <v>13.2</v>
-      </c>
-      <c r="R3">
-        <v>0.462</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>5.1</v>
-      </c>
-      <c r="U3">
-        <v>0.583</v>
-      </c>
-      <c r="V3">
-        <v>1.4</v>
-      </c>
-      <c r="W3">
-        <v>3.1</v>
-      </c>
-      <c r="X3">
-        <v>4.6</v>
-      </c>
-      <c r="Y3">
-        <v>2.8</v>
-      </c>
-      <c r="Z3">
-        <v>0.9</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>2.8</v>
-      </c>
-      <c r="AC3">
-        <v>5.3</v>
-      </c>
-      <c r="AD3">
-        <v>17.4</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-714</v>
-      </c>
-      <c r="J4">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="K4">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="L4">
-        <v>-0.04499999999999998</v>
-      </c>
-      <c r="M4">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="N4">
-        <v>-0.5</v>
-      </c>
-      <c r="O4">
-        <v>-0.146</v>
-      </c>
-      <c r="P4">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Q4">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="R4">
-        <v>-0.02799999999999997</v>
-      </c>
-      <c r="S4">
-        <v>-2</v>
-      </c>
-      <c r="T4">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="U4">
-        <v>-0.2610000000000001</v>
-      </c>
-      <c r="V4">
-        <v>-0.5</v>
-      </c>
-      <c r="W4">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="X4">
-        <v>0.5</v>
-      </c>
-      <c r="Y4">
-        <v>-1.5</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>-0.1</v>
-      </c>
-      <c r="AB4">
-        <v>-0.8000000000000003</v>
-      </c>
-      <c r="AC4">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AD4">
-        <v>-4.300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1015</v>
-      </c>
-      <c r="J5">
-        <v>8.6</v>
-      </c>
-      <c r="K5">
-        <v>17.5</v>
-      </c>
-      <c r="L5">
-        <v>0.493</v>
-      </c>
-      <c r="M5">
-        <v>0.8</v>
-      </c>
-      <c r="N5">
-        <v>2.3</v>
-      </c>
-      <c r="O5">
-        <v>0.354</v>
-      </c>
-      <c r="P5">
-        <v>7.8</v>
-      </c>
-      <c r="Q5">
-        <v>15.2</v>
-      </c>
-      <c r="R5">
-        <v>0.514</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>4.9</v>
-      </c>
-      <c r="U5">
-        <v>0.8320000000000001</v>
-      </c>
-      <c r="V5">
-        <v>1.8</v>
-      </c>
-      <c r="W5">
-        <v>2.1</v>
-      </c>
-      <c r="X5">
-        <v>3.9</v>
-      </c>
-      <c r="Y5">
-        <v>3.1</v>
-      </c>
-      <c r="Z5">
-        <v>1.5</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>2.9</v>
-      </c>
-      <c r="AC5">
-        <v>4.7</v>
-      </c>
-      <c r="AD5">
-        <v>22.1</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>133</v>
-      </c>
-      <c r="J6">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K6">
-        <v>19.2</v>
-      </c>
-      <c r="L6">
-        <v>0.451</v>
-      </c>
-      <c r="M6">
-        <v>0.3</v>
-      </c>
-      <c r="N6">
-        <v>1.6</v>
-      </c>
-      <c r="O6">
-        <v>0.167</v>
-      </c>
-      <c r="P6">
-        <v>8.4</v>
-      </c>
-      <c r="Q6">
-        <v>17.6</v>
-      </c>
-      <c r="R6">
-        <v>0.477</v>
-      </c>
-      <c r="S6">
-        <v>4.1</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="V6">
-        <v>2.7</v>
-      </c>
-      <c r="W6">
-        <v>2.2</v>
-      </c>
-      <c r="X6">
-        <v>4.9</v>
-      </c>
-      <c r="Y6">
-        <v>5.4</v>
-      </c>
-      <c r="Z6">
-        <v>1.6</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>3.2</v>
-      </c>
-      <c r="AC6">
-        <v>5.7</v>
-      </c>
-      <c r="AD6">
-        <v>21.7</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>882</v>
-      </c>
-      <c r="J7">
-        <v>8.6</v>
-      </c>
-      <c r="K7">
-        <v>17.2</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.9</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>0.373</v>
-      </c>
-      <c r="P7">
-        <v>7.7</v>
-      </c>
-      <c r="Q7">
-        <v>14.8</v>
-      </c>
-      <c r="R7">
-        <v>0.521</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>4.7</v>
-      </c>
-      <c r="U7">
-        <v>0.861</v>
-      </c>
-      <c r="V7">
-        <v>1.7</v>
-      </c>
-      <c r="W7">
-        <v>2.1</v>
-      </c>
-      <c r="X7">
-        <v>3.8</v>
-      </c>
-      <c r="Y7">
-        <v>2.7</v>
-      </c>
-      <c r="Z7">
-        <v>1.5</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>2.8</v>
-      </c>
-      <c r="AC7">
-        <v>4.5</v>
-      </c>
-      <c r="AD7">
-        <v>22.2</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>82</v>
-      </c>
-      <c r="H9">
-        <v>82</v>
-      </c>
-      <c r="I9">
-        <v>3027</v>
-      </c>
-      <c r="J9">
-        <v>7.9</v>
-      </c>
-      <c r="K9">
-        <v>15.6</v>
-      </c>
-      <c r="L9">
-        <v>0.508</v>
-      </c>
-      <c r="M9">
-        <v>1.5</v>
-      </c>
-      <c r="N9">
-        <v>3.3</v>
-      </c>
-      <c r="O9">
-        <v>0.444</v>
-      </c>
-      <c r="P9">
-        <v>6.5</v>
-      </c>
-      <c r="Q9">
-        <v>12.3</v>
-      </c>
-      <c r="R9">
-        <v>0.525</v>
-      </c>
-      <c r="S9">
-        <v>2.8</v>
-      </c>
-      <c r="T9">
-        <v>3.4</v>
-      </c>
-      <c r="U9">
-        <v>0.8079999999999999</v>
-      </c>
-      <c r="V9">
-        <v>1.2</v>
-      </c>
-      <c r="W9">
-        <v>1.9</v>
-      </c>
-      <c r="X9">
-        <v>3.1</v>
-      </c>
-      <c r="Y9">
-        <v>3</v>
-      </c>
-      <c r="Z9">
-        <v>1.2</v>
-      </c>
-      <c r="AA9">
-        <v>0.1</v>
-      </c>
-      <c r="AB9">
-        <v>2.6</v>
-      </c>
-      <c r="AC9">
-        <v>2.9</v>
-      </c>
-      <c r="AD9">
-        <v>20.1</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>163</v>
-      </c>
-      <c r="J10">
-        <v>9.1</v>
-      </c>
-      <c r="K10">
-        <v>16.8</v>
-      </c>
-      <c r="L10">
-        <v>0.539</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-      <c r="N10">
-        <v>2.7</v>
-      </c>
-      <c r="O10">
-        <v>0.333</v>
-      </c>
-      <c r="P10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>14.1</v>
-      </c>
-      <c r="R10">
-        <v>0.578</v>
-      </c>
-      <c r="S10">
-        <v>2.4</v>
-      </c>
-      <c r="T10">
-        <v>2.9</v>
-      </c>
-      <c r="U10">
-        <v>0.846</v>
-      </c>
-      <c r="V10">
-        <v>0.9</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>2.2</v>
-      </c>
-      <c r="Y10">
-        <v>2.9</v>
-      </c>
-      <c r="Z10">
-        <v>0.9</v>
-      </c>
-      <c r="AA10">
-        <v>0.2</v>
-      </c>
-      <c r="AB10">
-        <v>1.8</v>
-      </c>
-      <c r="AC10">
-        <v>2.9</v>
-      </c>
-      <c r="AD10">
-        <v>21.4</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>-2864</v>
-      </c>
-      <c r="J11">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K11">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="M11">
-        <v>-0.6</v>
-      </c>
-      <c r="N11">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="O11">
-        <v>-0.111</v>
-      </c>
-      <c r="P11">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="Q11">
-        <v>1.799999999999999</v>
-      </c>
-      <c r="R11">
-        <v>0.05299999999999994</v>
-      </c>
-      <c r="S11">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="T11">
-        <v>-0.5</v>
-      </c>
-      <c r="U11">
-        <v>0.03800000000000003</v>
-      </c>
-      <c r="V11">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="W11">
-        <v>-0.5999999999999999</v>
-      </c>
-      <c r="X11">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="Y11">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="Z11">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>0.1</v>
-      </c>
-      <c r="AB11">
-        <v>-0.8</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>1.299999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-      <c r="H12">
-        <v>67</v>
-      </c>
-      <c r="I12">
-        <v>2660</v>
-      </c>
-      <c r="J12">
-        <v>7.9</v>
-      </c>
-      <c r="K12">
-        <v>15.3</v>
-      </c>
-      <c r="L12">
-        <v>0.518</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>2.3</v>
-      </c>
-      <c r="O12">
-        <v>0.449</v>
-      </c>
-      <c r="P12">
-        <v>6.9</v>
-      </c>
-      <c r="Q12">
-        <v>13.1</v>
-      </c>
-      <c r="R12">
-        <v>0.529</v>
-      </c>
-      <c r="S12">
-        <v>4.3</v>
-      </c>
-      <c r="T12">
-        <v>4.9</v>
-      </c>
-      <c r="U12">
-        <v>0.87</v>
-      </c>
-      <c r="V12">
-        <v>0.6</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>2.6</v>
-      </c>
-      <c r="Y12">
-        <v>3.3</v>
-      </c>
-      <c r="Z12">
-        <v>1.3</v>
-      </c>
-      <c r="AA12">
-        <v>0.2</v>
-      </c>
-      <c r="AB12">
-        <v>2.8</v>
-      </c>
-      <c r="AC12">
-        <v>3.2</v>
-      </c>
-      <c r="AD12">
-        <v>21.2</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>193</v>
-      </c>
-      <c r="J13">
-        <v>5.6</v>
-      </c>
-      <c r="K13">
-        <v>12.3</v>
-      </c>
-      <c r="L13">
-        <v>0.455</v>
-      </c>
-      <c r="M13">
-        <v>0.4</v>
-      </c>
-      <c r="N13">
-        <v>1.1</v>
-      </c>
-      <c r="O13">
-        <v>0.333</v>
-      </c>
-      <c r="P13">
-        <v>5.2</v>
-      </c>
-      <c r="Q13">
-        <v>11.2</v>
-      </c>
-      <c r="R13">
-        <v>0.467</v>
-      </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>3.7</v>
-      </c>
-      <c r="U13">
-        <v>0.8</v>
-      </c>
-      <c r="V13">
-        <v>0.4</v>
-      </c>
-      <c r="W13">
-        <v>1.3</v>
-      </c>
-      <c r="X13">
-        <v>1.7</v>
-      </c>
-      <c r="Y13">
-        <v>1.7</v>
-      </c>
-      <c r="Z13">
-        <v>0.4</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>4.1</v>
-      </c>
-      <c r="AC13">
-        <v>3.4</v>
-      </c>
-      <c r="AD13">
-        <v>14.5</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>-2467</v>
-      </c>
-      <c r="J14">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="K14">
-        <v>-3</v>
-      </c>
-      <c r="L14">
-        <v>-0.063</v>
-      </c>
-      <c r="M14">
-        <v>-0.6</v>
-      </c>
-      <c r="N14">
-        <v>-1.2</v>
-      </c>
-      <c r="O14">
-        <v>-0.116</v>
-      </c>
-      <c r="P14">
-        <v>-1.7</v>
-      </c>
-      <c r="Q14">
-        <v>-1.9</v>
-      </c>
-      <c r="R14">
-        <v>-0.062</v>
-      </c>
-      <c r="S14">
-        <v>-1.3</v>
-      </c>
-      <c r="T14">
-        <v>-1.2</v>
-      </c>
-      <c r="U14">
-        <v>-0.06999999999999995</v>
-      </c>
-      <c r="V14">
-        <v>-0.2</v>
-      </c>
-      <c r="W14">
-        <v>-0.7</v>
-      </c>
-      <c r="X14">
-        <v>-0.9000000000000001</v>
-      </c>
-      <c r="Y14">
-        <v>-1.6</v>
-      </c>
-      <c r="Z14">
-        <v>-0.9</v>
-      </c>
-      <c r="AA14">
-        <v>-0.2</v>
-      </c>
-      <c r="AB14">
-        <v>1.3</v>
-      </c>
-      <c r="AC14">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="AD14">
-        <v>-6.699999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>195</v>
-      </c>
-      <c r="H15">
-        <v>149</v>
-      </c>
-      <c r="I15">
-        <v>6569</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>15.7</v>
-      </c>
-      <c r="L15">
-        <v>0.511</v>
-      </c>
-      <c r="M15">
-        <v>1.2</v>
-      </c>
-      <c r="N15">
-        <v>2.8</v>
-      </c>
-      <c r="O15">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="P15">
-        <v>6.8</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-      <c r="R15">
-        <v>0.526</v>
-      </c>
-      <c r="S15">
-        <v>3.5</v>
-      </c>
-      <c r="T15">
-        <v>4.2</v>
-      </c>
-      <c r="U15">
-        <v>0.846</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>3</v>
-      </c>
-      <c r="Y15">
-        <v>3.1</v>
-      </c>
-      <c r="Z15">
-        <v>1.3</v>
-      </c>
-      <c r="AA15">
-        <v>0.1</v>
-      </c>
-      <c r="AB15">
-        <v>2.7</v>
-      </c>
-      <c r="AC15">
-        <v>3.3</v>
-      </c>
-      <c r="AD15">
-        <v>20.8</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>356</v>
-      </c>
-      <c r="J16">
-        <v>7.2</v>
-      </c>
-      <c r="K16">
-        <v>14.4</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.6</v>
-      </c>
-      <c r="N16">
-        <v>1.8</v>
-      </c>
-      <c r="O16">
-        <v>0.333</v>
-      </c>
-      <c r="P16">
-        <v>6.6</v>
-      </c>
-      <c r="Q16">
-        <v>12.5</v>
-      </c>
-      <c r="R16">
-        <v>0.524</v>
-      </c>
-      <c r="S16">
-        <v>2.7</v>
-      </c>
-      <c r="T16">
-        <v>3.3</v>
-      </c>
-      <c r="U16">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="V16">
-        <v>0.6</v>
-      </c>
-      <c r="W16">
-        <v>1.3</v>
-      </c>
-      <c r="X16">
-        <v>1.9</v>
-      </c>
-      <c r="Y16">
-        <v>2.2</v>
-      </c>
-      <c r="Z16">
-        <v>0.6</v>
-      </c>
-      <c r="AA16">
-        <v>0.1</v>
-      </c>
-      <c r="AB16">
-        <v>3</v>
-      </c>
-      <c r="AC16">
-        <v>3.1</v>
-      </c>
-      <c r="AD16">
-        <v>17.7</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>-6213</v>
-      </c>
-      <c r="J17">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="K17">
-        <v>-1.299999999999999</v>
-      </c>
-      <c r="L17">
-        <v>-0.01100000000000001</v>
-      </c>
-      <c r="M17">
-        <v>-0.6</v>
-      </c>
-      <c r="N17">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="O17">
-        <v>-0.1040000000000001</v>
-      </c>
-      <c r="P17">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>-0.002000000000000002</v>
-      </c>
-      <c r="S17">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="T17">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="U17">
-        <v>-0.02800000000000002</v>
-      </c>
-      <c r="V17">
-        <v>-0.4</v>
-      </c>
-      <c r="W17">
-        <v>-0.7</v>
-      </c>
-      <c r="X17">
-        <v>-1.1</v>
-      </c>
-      <c r="Y17">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="Z17">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC17">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="AD17">
-        <v>-3.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>95</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1100</v>
-      </c>
-      <c r="J18">
-        <v>7.8</v>
-      </c>
-      <c r="K18">
-        <v>16.3</v>
-      </c>
-      <c r="L18">
-        <v>0.48</v>
-      </c>
-      <c r="M18">
-        <v>1.1</v>
-      </c>
-      <c r="N18">
-        <v>2.6</v>
-      </c>
-      <c r="O18">
-        <v>0.4379999999999999</v>
-      </c>
-      <c r="P18">
-        <v>6.7</v>
-      </c>
-      <c r="Q18">
-        <v>13.7</v>
-      </c>
-      <c r="R18">
-        <v>0.488</v>
-      </c>
-      <c r="S18">
-        <v>4.9</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18">
-        <v>0.8240000000000001</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>2.3</v>
-      </c>
-      <c r="X18">
-        <v>4.2</v>
-      </c>
-      <c r="Y18">
-        <v>4.5</v>
-      </c>
-      <c r="Z18">
-        <v>0.9</v>
-      </c>
-      <c r="AA18">
-        <v>0.1</v>
-      </c>
-      <c r="AB18">
-        <v>3.5</v>
-      </c>
-      <c r="AC18">
-        <v>5.1</v>
-      </c>
-      <c r="AD18">
-        <v>21.7</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>253</v>
-      </c>
-      <c r="J19">
-        <v>6.8</v>
-      </c>
-      <c r="K19">
-        <v>15.5</v>
-      </c>
-      <c r="L19">
-        <v>0.44</v>
-      </c>
-      <c r="M19">
-        <v>0.7</v>
-      </c>
-      <c r="N19">
-        <v>2.3</v>
-      </c>
-      <c r="O19">
-        <v>0.313</v>
-      </c>
-      <c r="P19">
-        <v>6.1</v>
-      </c>
-      <c r="Q19">
-        <v>13.2</v>
-      </c>
-      <c r="R19">
-        <v>0.462</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="T19">
-        <v>5.1</v>
-      </c>
-      <c r="U19">
-        <v>0.583</v>
-      </c>
-      <c r="V19">
-        <v>1.4</v>
-      </c>
-      <c r="W19">
-        <v>3.1</v>
-      </c>
-      <c r="X19">
-        <v>4.6</v>
-      </c>
-      <c r="Y19">
-        <v>2.8</v>
-      </c>
-      <c r="Z19">
-        <v>0.9</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>2.8</v>
-      </c>
-      <c r="AC19">
-        <v>5.3</v>
-      </c>
-      <c r="AD19">
-        <v>17.4</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>-847</v>
-      </c>
-      <c r="J20">
-        <v>-1</v>
-      </c>
-      <c r="K20">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="L20">
-        <v>-0.03999999999999998</v>
-      </c>
-      <c r="M20">
-        <v>-0.4000000000000001</v>
-      </c>
-      <c r="N20">
-        <v>-0.3000000000000003</v>
-      </c>
-      <c r="O20">
-        <v>-0.1249999999999999</v>
-      </c>
-      <c r="P20">
-        <v>-0.6000000000000005</v>
-      </c>
-      <c r="Q20">
-        <v>-0.5</v>
-      </c>
-      <c r="R20">
-        <v>-0.02599999999999997</v>
-      </c>
-      <c r="S20">
-        <v>-1.9</v>
-      </c>
-      <c r="T20">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="U20">
-        <v>-0.2410000000000001</v>
-      </c>
-      <c r="V20">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="W20">
-        <v>0.8000000000000003</v>
-      </c>
-      <c r="X20">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="Y20">
-        <v>-1.7</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>-0.1</v>
-      </c>
-      <c r="AB20">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="AC20">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AD20">
-        <v>-4.300000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>290</v>
-      </c>
-      <c r="H21">
-        <v>149</v>
-      </c>
-      <c r="I21">
-        <v>7669</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>15.8</v>
-      </c>
-      <c r="L21">
-        <v>0.506</v>
-      </c>
-      <c r="M21">
-        <v>1.2</v>
-      </c>
-      <c r="N21">
-        <v>2.7</v>
-      </c>
-      <c r="O21">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="P21">
-        <v>6.8</v>
-      </c>
-      <c r="Q21">
-        <v>13.1</v>
-      </c>
-      <c r="R21">
-        <v>0.52</v>
-      </c>
-      <c r="S21">
-        <v>3.7</v>
-      </c>
-      <c r="T21">
-        <v>4.4</v>
-      </c>
-      <c r="U21">
-        <v>0.841</v>
-      </c>
-      <c r="V21">
-        <v>1.1</v>
-      </c>
-      <c r="W21">
-        <v>2</v>
-      </c>
-      <c r="X21">
-        <v>3.1</v>
-      </c>
-      <c r="Y21">
-        <v>3.3</v>
-      </c>
-      <c r="Z21">
-        <v>1.2</v>
-      </c>
-      <c r="AA21">
-        <v>0.1</v>
-      </c>
-      <c r="AB21">
-        <v>2.8</v>
-      </c>
-      <c r="AC21">
-        <v>3.5</v>
-      </c>
-      <c r="AD21">
-        <v>20.9</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>29</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>609</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>14.8</v>
-      </c>
-      <c r="L22">
-        <v>0.474</v>
-      </c>
-      <c r="M22">
-        <v>0.7</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>0.324</v>
-      </c>
-      <c r="P22">
-        <v>6.4</v>
-      </c>
-      <c r="Q22">
-        <v>12.8</v>
-      </c>
-      <c r="R22">
-        <v>0.498</v>
-      </c>
-      <c r="S22">
-        <v>2.8</v>
-      </c>
-      <c r="T22">
-        <v>4.1</v>
-      </c>
-      <c r="U22">
-        <v>0.696</v>
-      </c>
-      <c r="V22">
-        <v>0.9</v>
-      </c>
-      <c r="W22">
-        <v>2.1</v>
-      </c>
-      <c r="X22">
-        <v>3</v>
-      </c>
-      <c r="Y22">
-        <v>2.5</v>
-      </c>
-      <c r="Z22">
-        <v>0.7</v>
-      </c>
-      <c r="AA22">
-        <v>0.1</v>
-      </c>
-      <c r="AB22">
-        <v>3</v>
-      </c>
-      <c r="AC22">
-        <v>4</v>
-      </c>
-      <c r="AD22">
-        <v>17.6</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23">
-        <v>-7060</v>
-      </c>
-      <c r="J23">
-        <v>-1</v>
-      </c>
-      <c r="K23">
-        <v>-1</v>
-      </c>
-      <c r="L23">
-        <v>-0.03200000000000003</v>
-      </c>
-      <c r="M23">
-        <v>-0.5</v>
-      </c>
-      <c r="N23">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="O23">
-        <v>-0.113</v>
-      </c>
-      <c r="P23">
-        <v>-0.3999999999999995</v>
-      </c>
-      <c r="Q23">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="R23">
-        <v>-0.02200000000000002</v>
-      </c>
-      <c r="S23">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="T23">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="U23">
-        <v>-0.145</v>
-      </c>
-      <c r="V23">
-        <v>-0.2000000000000001</v>
-      </c>
-      <c r="W23">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="X23">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="Y23">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="Z23">
-        <v>-0.5</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="AC23">
-        <v>0.5</v>
-      </c>
-      <c r="AD23">
-        <v>-3.299999999999997</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2">
-        <v>77</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>967</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>20.7</v>
-      </c>
-      <c r="L2">
-        <v>0.485</v>
-      </c>
-      <c r="M2">
-        <v>1.6</v>
-      </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2">
-        <v>0.459</v>
-      </c>
-      <c r="P2">
-        <v>8.4</v>
-      </c>
-      <c r="Q2">
-        <v>17.1</v>
-      </c>
-      <c r="R2">
-        <v>0.49</v>
-      </c>
-      <c r="S2">
-        <v>6.6</v>
-      </c>
-      <c r="T2">
-        <v>7.8</v>
-      </c>
-      <c r="U2">
-        <v>0.8440000000000001</v>
-      </c>
-      <c r="V2">
-        <v>2.4</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>5.4</v>
-      </c>
-      <c r="Y2">
-        <v>5.6</v>
-      </c>
-      <c r="Z2">
-        <v>1.1</v>
-      </c>
-      <c r="AA2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2">
-        <v>4.7</v>
-      </c>
-      <c r="AC2">
-        <v>6.5</v>
-      </c>
-      <c r="AD2">
-        <v>28.3</v>
-      </c>
-      <c r="AF2">
-        <v>113</v>
-      </c>
-      <c r="AG2">
-        <v>109</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>253</v>
-      </c>
-      <c r="J3">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K3">
-        <v>20.8</v>
-      </c>
-      <c r="L3">
-        <v>0.44</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>3.1</v>
-      </c>
-      <c r="O3">
-        <v>0.313</v>
-      </c>
-      <c r="P3">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q3">
-        <v>17.8</v>
-      </c>
-      <c r="R3">
-        <v>0.462</v>
-      </c>
-      <c r="S3">
-        <v>4</v>
-      </c>
-      <c r="T3">
-        <v>6.9</v>
-      </c>
-      <c r="U3">
-        <v>0.583</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>4.2</v>
-      </c>
-      <c r="X3">
-        <v>6.1</v>
-      </c>
-      <c r="Y3">
-        <v>3.8</v>
-      </c>
-      <c r="Z3">
-        <v>1.1</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>3.8</v>
-      </c>
-      <c r="AC3">
-        <v>7.1</v>
-      </c>
-      <c r="AD3">
-        <v>23.3</v>
-      </c>
-      <c r="AF3">
-        <v>96</v>
-      </c>
-      <c r="AG3">
-        <v>111</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-714</v>
-      </c>
-      <c r="J4">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="K4">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="L4">
-        <v>-0.04499999999999998</v>
-      </c>
-      <c r="M4">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="N4">
-        <v>-0.5</v>
-      </c>
-      <c r="O4">
-        <v>-0.146</v>
-      </c>
-      <c r="P4">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="Q4">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="R4">
-        <v>-0.02799999999999997</v>
-      </c>
-      <c r="S4">
-        <v>-2.6</v>
-      </c>
-      <c r="T4">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="U4">
-        <v>-0.2610000000000001</v>
-      </c>
-      <c r="V4">
-        <v>-0.5</v>
-      </c>
-      <c r="W4">
-        <v>1.2</v>
-      </c>
-      <c r="X4">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="Y4">
-        <v>-1.8</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>-0.1</v>
-      </c>
-      <c r="AB4">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="AC4">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="AD4">
-        <v>-5</v>
-      </c>
-      <c r="AF4">
-        <v>-17</v>
-      </c>
-      <c r="AG4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1015</v>
-      </c>
-      <c r="J5">
-        <v>11.6</v>
-      </c>
-      <c r="K5">
-        <v>23.5</v>
-      </c>
-      <c r="L5">
-        <v>0.493</v>
-      </c>
-      <c r="M5">
-        <v>1.1</v>
-      </c>
-      <c r="N5">
-        <v>3.1</v>
-      </c>
-      <c r="O5">
-        <v>0.354</v>
-      </c>
-      <c r="P5">
-        <v>10.5</v>
-      </c>
-      <c r="Q5">
-        <v>20.4</v>
-      </c>
-      <c r="R5">
-        <v>0.514</v>
-      </c>
-      <c r="S5">
-        <v>5.4</v>
-      </c>
-      <c r="T5">
-        <v>6.5</v>
-      </c>
-      <c r="U5">
-        <v>0.8320000000000001</v>
-      </c>
-      <c r="V5">
-        <v>2.4</v>
-      </c>
-      <c r="W5">
-        <v>2.8</v>
-      </c>
-      <c r="X5">
-        <v>5.2</v>
-      </c>
-      <c r="Y5">
-        <v>4.1</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>3.9</v>
-      </c>
-      <c r="AC5">
-        <v>6.3</v>
-      </c>
-      <c r="AD5">
-        <v>29.6</v>
-      </c>
-      <c r="AF5">
-        <v>111</v>
-      </c>
-      <c r="AG5">
-        <v>110</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>133</v>
-      </c>
-      <c r="J6">
-        <v>11.5</v>
-      </c>
-      <c r="K6">
-        <v>25.5</v>
-      </c>
-      <c r="L6">
-        <v>0.451</v>
-      </c>
-      <c r="M6">
-        <v>0.4</v>
-      </c>
-      <c r="N6">
-        <v>2.2</v>
-      </c>
-      <c r="O6">
-        <v>0.167</v>
-      </c>
-      <c r="P6">
-        <v>11.1</v>
-      </c>
-      <c r="Q6">
-        <v>23.3</v>
-      </c>
-      <c r="R6">
-        <v>0.477</v>
-      </c>
-      <c r="S6">
-        <v>5.4</v>
-      </c>
-      <c r="T6">
-        <v>7.9</v>
-      </c>
-      <c r="U6">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="V6">
-        <v>3.6</v>
-      </c>
-      <c r="W6">
-        <v>2.9</v>
-      </c>
-      <c r="X6">
-        <v>6.5</v>
-      </c>
-      <c r="Y6">
-        <v>7.2</v>
-      </c>
-      <c r="Z6">
-        <v>2.2</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>4.3</v>
-      </c>
-      <c r="AC6">
-        <v>7.5</v>
-      </c>
-      <c r="AD6">
-        <v>28.7</v>
-      </c>
-      <c r="AF6">
-        <v>104</v>
-      </c>
-      <c r="AG6">
-        <v>107</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>882</v>
-      </c>
-      <c r="J7">
-        <v>11.6</v>
-      </c>
-      <c r="K7">
-        <v>23.1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>1.2</v>
-      </c>
-      <c r="N7">
-        <v>3.2</v>
-      </c>
-      <c r="O7">
-        <v>0.373</v>
-      </c>
-      <c r="P7">
-        <v>10.4</v>
-      </c>
-      <c r="Q7">
-        <v>19.9</v>
-      </c>
-      <c r="R7">
-        <v>0.521</v>
-      </c>
-      <c r="S7">
-        <v>5.4</v>
-      </c>
-      <c r="T7">
-        <v>6.3</v>
-      </c>
-      <c r="U7">
-        <v>0.861</v>
-      </c>
-      <c r="V7">
-        <v>2.2</v>
-      </c>
-      <c r="W7">
-        <v>2.8</v>
-      </c>
-      <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7">
-        <v>3.6</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7">
-        <v>0.1</v>
-      </c>
-      <c r="AB7">
-        <v>3.8</v>
-      </c>
-      <c r="AC7">
-        <v>6.1</v>
-      </c>
-      <c r="AD7">
-        <v>29.8</v>
-      </c>
-      <c r="AF7">
-        <v>112</v>
-      </c>
-      <c r="AG7">
-        <v>110</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>82</v>
-      </c>
-      <c r="H9">
-        <v>82</v>
-      </c>
-      <c r="I9">
-        <v>3027</v>
-      </c>
-      <c r="J9">
-        <v>10.8</v>
-      </c>
-      <c r="K9">
-        <v>21.3</v>
-      </c>
-      <c r="L9">
-        <v>0.508</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>4.5</v>
-      </c>
-      <c r="O9">
-        <v>0.444</v>
-      </c>
-      <c r="P9">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q9">
-        <v>16.8</v>
-      </c>
-      <c r="R9">
-        <v>0.525</v>
-      </c>
-      <c r="S9">
-        <v>3.8</v>
-      </c>
-      <c r="T9">
-        <v>4.6</v>
-      </c>
-      <c r="U9">
-        <v>0.8079999999999999</v>
-      </c>
-      <c r="V9">
-        <v>1.6</v>
-      </c>
-      <c r="W9">
-        <v>2.6</v>
-      </c>
-      <c r="X9">
-        <v>4.2</v>
-      </c>
-      <c r="Y9">
-        <v>4.1</v>
-      </c>
-      <c r="Z9">
-        <v>1.7</v>
-      </c>
-      <c r="AA9">
-        <v>0.2</v>
-      </c>
-      <c r="AB9">
-        <v>3.5</v>
-      </c>
-      <c r="AC9">
-        <v>4</v>
-      </c>
-      <c r="AD9">
-        <v>27.4</v>
-      </c>
-      <c r="AF9">
-        <v>116</v>
-      </c>
-      <c r="AG9">
-        <v>113</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>163</v>
-      </c>
-      <c r="J10">
-        <v>12.5</v>
-      </c>
-      <c r="K10">
-        <v>23.1</v>
-      </c>
-      <c r="L10">
-        <v>0.539</v>
-      </c>
-      <c r="M10">
-        <v>1.2</v>
-      </c>
-      <c r="N10">
-        <v>3.6</v>
-      </c>
-      <c r="O10">
-        <v>0.333</v>
-      </c>
-      <c r="P10">
-        <v>11.2</v>
-      </c>
-      <c r="Q10">
-        <v>19.4</v>
-      </c>
-      <c r="R10">
-        <v>0.578</v>
-      </c>
-      <c r="S10">
-        <v>3.3</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>0.846</v>
-      </c>
-      <c r="V10">
-        <v>1.2</v>
-      </c>
-      <c r="W10">
-        <v>1.8</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>4</v>
-      </c>
-      <c r="Z10">
-        <v>1.2</v>
-      </c>
-      <c r="AA10">
-        <v>0.3</v>
-      </c>
-      <c r="AB10">
-        <v>2.4</v>
-      </c>
-      <c r="AC10">
-        <v>4</v>
-      </c>
-      <c r="AD10">
-        <v>29.5</v>
-      </c>
-      <c r="AF10">
-        <v>118</v>
-      </c>
-      <c r="AG10">
-        <v>120</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>-2864</v>
-      </c>
-      <c r="J11">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="K11">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="M11">
-        <v>-0.8</v>
-      </c>
-      <c r="N11">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="O11">
-        <v>-0.111</v>
-      </c>
-      <c r="P11">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="Q11">
-        <v>2.599999999999998</v>
-      </c>
-      <c r="R11">
-        <v>0.05299999999999994</v>
-      </c>
-      <c r="S11">
-        <v>-0.5</v>
-      </c>
-      <c r="T11">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="U11">
-        <v>0.03800000000000003</v>
-      </c>
-      <c r="V11">
-        <v>-0.4000000000000001</v>
-      </c>
-      <c r="W11">
-        <v>-0.8</v>
-      </c>
-      <c r="X11">
-        <v>-1.2</v>
-      </c>
-      <c r="Y11">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Z11">
-        <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="AB11">
-        <v>-1.1</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="AF11">
-        <v>2</v>
-      </c>
-      <c r="AG11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-      <c r="H12">
-        <v>67</v>
-      </c>
-      <c r="I12">
-        <v>2660</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>21.3</v>
-      </c>
-      <c r="L12">
-        <v>0.518</v>
-      </c>
-      <c r="M12">
-        <v>1.4</v>
-      </c>
-      <c r="N12">
-        <v>3.1</v>
-      </c>
-      <c r="O12">
-        <v>0.449</v>
-      </c>
-      <c r="P12">
-        <v>9.6</v>
-      </c>
-      <c r="Q12">
-        <v>18.2</v>
-      </c>
-      <c r="R12">
-        <v>0.529</v>
-      </c>
-      <c r="S12">
-        <v>5.9</v>
-      </c>
-      <c r="T12">
-        <v>6.8</v>
-      </c>
-      <c r="U12">
-        <v>0.87</v>
-      </c>
-      <c r="V12">
-        <v>0.8</v>
-      </c>
-      <c r="W12">
-        <v>2.8</v>
-      </c>
-      <c r="X12">
-        <v>3.6</v>
-      </c>
-      <c r="Y12">
-        <v>4.6</v>
-      </c>
-      <c r="Z12">
-        <v>1.8</v>
-      </c>
-      <c r="AA12">
-        <v>0.2</v>
-      </c>
-      <c r="AB12">
-        <v>3.8</v>
-      </c>
-      <c r="AC12">
-        <v>4.5</v>
-      </c>
-      <c r="AD12">
-        <v>29.4</v>
-      </c>
-      <c r="AF12">
-        <v>116</v>
-      </c>
-      <c r="AG12">
-        <v>109</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>193</v>
-      </c>
-      <c r="J13">
-        <v>8.1</v>
-      </c>
-      <c r="K13">
-        <v>17.9</v>
-      </c>
-      <c r="L13">
-        <v>0.455</v>
-      </c>
-      <c r="M13">
-        <v>0.5</v>
-      </c>
-      <c r="N13">
-        <v>1.6</v>
-      </c>
-      <c r="O13">
-        <v>0.333</v>
-      </c>
-      <c r="P13">
-        <v>7.6</v>
-      </c>
-      <c r="Q13">
-        <v>16.2</v>
-      </c>
-      <c r="R13">
-        <v>0.467</v>
-      </c>
-      <c r="S13">
-        <v>4.3</v>
-      </c>
-      <c r="T13">
-        <v>5.4</v>
-      </c>
-      <c r="U13">
-        <v>0.8</v>
-      </c>
-      <c r="V13">
-        <v>0.5</v>
-      </c>
-      <c r="W13">
-        <v>1.9</v>
-      </c>
-      <c r="X13">
-        <v>2.4</v>
-      </c>
-      <c r="Y13">
-        <v>2.4</v>
-      </c>
-      <c r="Z13">
-        <v>0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>6</v>
-      </c>
-      <c r="AC13">
-        <v>4.9</v>
-      </c>
-      <c r="AD13">
-        <v>21.1</v>
-      </c>
-      <c r="AF13">
-        <v>86</v>
-      </c>
-      <c r="AG13">
-        <v>113</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>-2467</v>
-      </c>
-      <c r="J14">
-        <v>-2.9</v>
-      </c>
-      <c r="K14">
-        <v>-3.400000000000002</v>
-      </c>
-      <c r="L14">
-        <v>-0.063</v>
-      </c>
-      <c r="M14">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="N14">
-        <v>-1.5</v>
-      </c>
-      <c r="O14">
-        <v>-0.116</v>
-      </c>
-      <c r="P14">
-        <v>-2</v>
-      </c>
-      <c r="Q14">
-        <v>-2</v>
-      </c>
-      <c r="R14">
-        <v>-0.062</v>
-      </c>
-      <c r="S14">
-        <v>-1.600000000000001</v>
-      </c>
-      <c r="T14">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="U14">
-        <v>-0.06999999999999995</v>
-      </c>
-      <c r="V14">
-        <v>-0.3</v>
-      </c>
-      <c r="W14">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="X14">
-        <v>-1.2</v>
-      </c>
-      <c r="Y14">
-        <v>-2.2</v>
-      </c>
-      <c r="Z14">
-        <v>-1.3</v>
-      </c>
-      <c r="AA14">
-        <v>-0.2</v>
-      </c>
-      <c r="AB14">
-        <v>2.2</v>
-      </c>
-      <c r="AC14">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="AD14">
-        <v>-8.299999999999997</v>
-      </c>
-      <c r="AF14">
-        <v>-30</v>
-      </c>
-      <c r="AG14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>195</v>
-      </c>
-      <c r="H15">
-        <v>149</v>
-      </c>
-      <c r="I15">
-        <v>6569</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>21.5</v>
-      </c>
-      <c r="L15">
-        <v>0.511</v>
-      </c>
-      <c r="M15">
-        <v>1.7</v>
-      </c>
-      <c r="N15">
-        <v>3.8</v>
-      </c>
-      <c r="O15">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="P15">
-        <v>9.4</v>
-      </c>
-      <c r="Q15">
-        <v>17.8</v>
-      </c>
-      <c r="R15">
-        <v>0.526</v>
-      </c>
-      <c r="S15">
-        <v>4.8</v>
-      </c>
-      <c r="T15">
-        <v>5.7</v>
-      </c>
-      <c r="U15">
-        <v>0.846</v>
-      </c>
-      <c r="V15">
-        <v>1.4</v>
-      </c>
-      <c r="W15">
-        <v>2.7</v>
-      </c>
-      <c r="X15">
-        <v>4.1</v>
-      </c>
-      <c r="Y15">
-        <v>4.2</v>
-      </c>
-      <c r="Z15">
-        <v>1.8</v>
-      </c>
-      <c r="AA15">
-        <v>0.2</v>
-      </c>
-      <c r="AB15">
-        <v>3.7</v>
-      </c>
-      <c r="AC15">
-        <v>4.5</v>
-      </c>
-      <c r="AD15">
-        <v>28.5</v>
-      </c>
-      <c r="AF15">
-        <v>115</v>
-      </c>
-      <c r="AG15">
-        <v>111</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <v>356</v>
-      </c>
-      <c r="J16">
-        <v>10.2</v>
-      </c>
-      <c r="K16">
-        <v>20.3</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.9</v>
-      </c>
-      <c r="N16">
-        <v>2.6</v>
-      </c>
-      <c r="O16">
-        <v>0.333</v>
-      </c>
-      <c r="P16">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Q16">
-        <v>17.8</v>
-      </c>
-      <c r="R16">
-        <v>0.524</v>
-      </c>
-      <c r="S16">
-        <v>3.9</v>
-      </c>
-      <c r="T16">
-        <v>4.7</v>
-      </c>
-      <c r="U16">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="V16">
-        <v>0.9</v>
-      </c>
-      <c r="W16">
-        <v>1.9</v>
-      </c>
-      <c r="X16">
-        <v>2.7</v>
-      </c>
-      <c r="Y16">
-        <v>3.1</v>
-      </c>
-      <c r="Z16">
-        <v>0.9</v>
-      </c>
-      <c r="AA16">
-        <v>0.1</v>
-      </c>
-      <c r="AB16">
-        <v>4.3</v>
-      </c>
-      <c r="AC16">
-        <v>4.4</v>
-      </c>
-      <c r="AD16">
-        <v>25.1</v>
-      </c>
-      <c r="AF16">
-        <v>100</v>
-      </c>
-      <c r="AG16">
-        <v>116</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>-6213</v>
-      </c>
-      <c r="J17">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="K17">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="L17">
-        <v>-0.01100000000000001</v>
-      </c>
-      <c r="M17">
-        <v>-0.7999999999999999</v>
-      </c>
-      <c r="N17">
-        <v>-1.2</v>
-      </c>
-      <c r="O17">
-        <v>-0.1040000000000001</v>
-      </c>
-      <c r="P17">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>-0.002000000000000002</v>
-      </c>
-      <c r="S17">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="T17">
-        <v>-1</v>
-      </c>
-      <c r="U17">
-        <v>-0.02800000000000002</v>
-      </c>
-      <c r="V17">
-        <v>-0.4999999999999999</v>
-      </c>
-      <c r="W17">
-        <v>-0.8000000000000003</v>
-      </c>
-      <c r="X17">
-        <v>-1.399999999999999</v>
-      </c>
-      <c r="Y17">
-        <v>-1.1</v>
-      </c>
-      <c r="Z17">
-        <v>-0.9</v>
-      </c>
-      <c r="AA17">
-        <v>-0.1</v>
-      </c>
-      <c r="AB17">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="AC17">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="AD17">
-        <v>-3.399999999999999</v>
-      </c>
-      <c r="AF17">
-        <v>-15</v>
-      </c>
-      <c r="AG17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>95</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1100</v>
-      </c>
-      <c r="J18">
-        <v>10.2</v>
-      </c>
-      <c r="K18">
-        <v>21.3</v>
-      </c>
-      <c r="L18">
-        <v>0.48</v>
-      </c>
-      <c r="M18">
-        <v>1.5</v>
-      </c>
-      <c r="N18">
-        <v>3.4</v>
-      </c>
-      <c r="O18">
-        <v>0.4379999999999999</v>
-      </c>
-      <c r="P18">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>17.9</v>
-      </c>
-      <c r="R18">
-        <v>0.488</v>
-      </c>
-      <c r="S18">
-        <v>6.4</v>
-      </c>
-      <c r="T18">
-        <v>7.8</v>
-      </c>
-      <c r="U18">
-        <v>0.8240000000000001</v>
-      </c>
-      <c r="V18">
-        <v>2.6</v>
-      </c>
-      <c r="W18">
-        <v>2.9</v>
-      </c>
-      <c r="X18">
-        <v>5.5</v>
-      </c>
-      <c r="Y18">
-        <v>5.8</v>
-      </c>
-      <c r="Z18">
-        <v>1.2</v>
-      </c>
-      <c r="AA18">
-        <v>0.1</v>
-      </c>
-      <c r="AB18">
-        <v>4.6</v>
-      </c>
-      <c r="AC18">
-        <v>6.6</v>
-      </c>
-      <c r="AD18">
-        <v>28.3</v>
-      </c>
-      <c r="AF18">
-        <v>112</v>
-      </c>
-      <c r="AG18">
-        <v>108</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>253</v>
-      </c>
-      <c r="J19">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K19">
-        <v>20.8</v>
-      </c>
-      <c r="L19">
-        <v>0.44</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>3.1</v>
-      </c>
-      <c r="O19">
-        <v>0.313</v>
-      </c>
-      <c r="P19">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>17.8</v>
-      </c>
-      <c r="R19">
-        <v>0.462</v>
-      </c>
-      <c r="S19">
-        <v>4</v>
-      </c>
-      <c r="T19">
-        <v>6.9</v>
-      </c>
-      <c r="U19">
-        <v>0.583</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>4.2</v>
-      </c>
-      <c r="X19">
-        <v>6.1</v>
-      </c>
-      <c r="Y19">
-        <v>3.8</v>
-      </c>
-      <c r="Z19">
-        <v>1.1</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>3.8</v>
-      </c>
-      <c r="AC19">
-        <v>7.1</v>
-      </c>
-      <c r="AD19">
-        <v>23.3</v>
-      </c>
-      <c r="AF19">
-        <v>96</v>
-      </c>
-      <c r="AG19">
-        <v>111</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>-847</v>
-      </c>
-      <c r="J20">
-        <v>-1</v>
-      </c>
-      <c r="K20">
-        <v>-0.5</v>
-      </c>
-      <c r="L20">
-        <v>-0.03999999999999998</v>
-      </c>
-      <c r="M20">
-        <v>-0.5</v>
-      </c>
-      <c r="N20">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="O20">
-        <v>-0.1249999999999999</v>
-      </c>
-      <c r="P20">
-        <v>-0.5</v>
-      </c>
-      <c r="Q20">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="R20">
-        <v>-0.02599999999999997</v>
-      </c>
-      <c r="S20">
-        <v>-2.4</v>
-      </c>
-      <c r="T20">
-        <v>-0.8999999999999995</v>
-      </c>
-      <c r="U20">
-        <v>-0.2410000000000001</v>
-      </c>
-      <c r="V20">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="W20">
-        <v>1.3</v>
-      </c>
-      <c r="X20">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Y20">
-        <v>-2</v>
-      </c>
-      <c r="Z20">
-        <v>-0.09999999999999987</v>
-      </c>
-      <c r="AA20">
-        <v>-0.1</v>
-      </c>
-      <c r="AB20">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AC20">
-        <v>0.5</v>
-      </c>
-      <c r="AD20">
-        <v>-5</v>
-      </c>
-      <c r="AF20">
-        <v>-16</v>
-      </c>
-      <c r="AG20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>290</v>
-      </c>
-      <c r="H21">
-        <v>149</v>
-      </c>
-      <c r="I21">
-        <v>7669</v>
-      </c>
-      <c r="J21">
-        <v>10.9</v>
-      </c>
-      <c r="K21">
-        <v>21.5</v>
-      </c>
-      <c r="L21">
-        <v>0.506</v>
-      </c>
-      <c r="M21">
-        <v>1.6</v>
-      </c>
-      <c r="N21">
-        <v>3.7</v>
-      </c>
-      <c r="O21">
-        <v>0.4370000000000001</v>
-      </c>
-      <c r="P21">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Q21">
-        <v>17.8</v>
-      </c>
-      <c r="R21">
-        <v>0.52</v>
-      </c>
-      <c r="S21">
-        <v>5.1</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>0.841</v>
-      </c>
-      <c r="V21">
-        <v>1.5</v>
-      </c>
-      <c r="W21">
-        <v>2.7</v>
-      </c>
-      <c r="X21">
-        <v>4.3</v>
-      </c>
-      <c r="Y21">
-        <v>4.5</v>
-      </c>
-      <c r="Z21">
-        <v>1.7</v>
-      </c>
-      <c r="AA21">
-        <v>0.2</v>
-      </c>
-      <c r="AB21">
-        <v>3.8</v>
-      </c>
-      <c r="AC21">
-        <v>4.8</v>
-      </c>
-      <c r="AD21">
-        <v>28.5</v>
-      </c>
-      <c r="AF21">
-        <v>115</v>
-      </c>
-      <c r="AG21">
-        <v>110</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>29</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>609</v>
-      </c>
-      <c r="J22">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K22">
-        <v>20.5</v>
-      </c>
-      <c r="L22">
-        <v>0.474</v>
-      </c>
-      <c r="M22">
-        <v>0.9</v>
-      </c>
-      <c r="N22">
-        <v>2.8</v>
-      </c>
-      <c r="O22">
-        <v>0.324</v>
-      </c>
-      <c r="P22">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q22">
-        <v>17.8</v>
-      </c>
-      <c r="R22">
-        <v>0.498</v>
-      </c>
-      <c r="S22">
-        <v>3.9</v>
-      </c>
-      <c r="T22">
-        <v>5.6</v>
-      </c>
-      <c r="U22">
-        <v>0.696</v>
-      </c>
-      <c r="V22">
-        <v>1.3</v>
-      </c>
-      <c r="W22">
-        <v>2.9</v>
-      </c>
-      <c r="X22">
-        <v>4.2</v>
-      </c>
-      <c r="Y22">
-        <v>3.4</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>0.1</v>
-      </c>
-      <c r="AB22">
-        <v>4.1</v>
-      </c>
-      <c r="AC22">
-        <v>5.6</v>
-      </c>
-      <c r="AD22">
-        <v>24.3</v>
-      </c>
-      <c r="AF22">
-        <v>99</v>
-      </c>
-      <c r="AG22">
-        <v>114</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23">
-        <v>-7060</v>
-      </c>
-      <c r="J23">
-        <v>-1.200000000000001</v>
-      </c>
-      <c r="K23">
-        <v>-1</v>
-      </c>
-      <c r="L23">
-        <v>-0.03200000000000003</v>
-      </c>
-      <c r="M23">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="N23">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="O23">
-        <v>-0.113</v>
-      </c>
-      <c r="P23">
-        <v>-0.5</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>-0.02200000000000002</v>
-      </c>
-      <c r="S23">
-        <v>-1.2</v>
-      </c>
-      <c r="T23">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="U23">
-        <v>-0.145</v>
-      </c>
-      <c r="V23">
-        <v>-0.2</v>
-      </c>
-      <c r="W23">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="X23">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Y23">
-        <v>-1.1</v>
-      </c>
-      <c r="Z23">
-        <v>-0.7</v>
-      </c>
-      <c r="AA23">
-        <v>-0.1</v>
-      </c>
-      <c r="AB23">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="AC23">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="AD23">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="AF23">
-        <v>-16</v>
-      </c>
-      <c r="AG23">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6668,70 +2715,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/petrodr01.xlsx
+++ b/output/petrodr01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="81">
   <si>
     <t>Season</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -2662,24 +2668,3971 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>967</v>
+      </c>
+      <c r="J2">
+        <v>7.7</v>
+      </c>
+      <c r="K2">
+        <v>15.9</v>
+      </c>
+      <c r="L2">
+        <v>0.485</v>
+      </c>
+      <c r="M2">
+        <v>1.3</v>
+      </c>
+      <c r="N2">
+        <v>2.8</v>
+      </c>
+      <c r="O2">
+        <v>0.459</v>
+      </c>
+      <c r="P2">
+        <v>6.4</v>
+      </c>
+      <c r="Q2">
+        <v>13.1</v>
+      </c>
+      <c r="R2">
+        <v>0.49</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>0.8440000000000001</v>
+      </c>
+      <c r="V2">
+        <v>1.9</v>
+      </c>
+      <c r="W2">
+        <v>2.3</v>
+      </c>
+      <c r="X2">
+        <v>4.1</v>
+      </c>
+      <c r="Y2">
+        <v>4.3</v>
+      </c>
+      <c r="Z2">
+        <v>0.9</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>3.6</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>21.7</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>253</v>
+      </c>
+      <c r="J3">
+        <v>6.8</v>
+      </c>
+      <c r="K3">
+        <v>15.5</v>
+      </c>
+      <c r="L3">
+        <v>0.44</v>
+      </c>
+      <c r="M3">
+        <v>0.7</v>
+      </c>
+      <c r="N3">
+        <v>2.3</v>
+      </c>
+      <c r="O3">
+        <v>0.313</v>
+      </c>
+      <c r="P3">
+        <v>6.1</v>
+      </c>
+      <c r="Q3">
+        <v>13.2</v>
+      </c>
+      <c r="R3">
+        <v>0.462</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>5.1</v>
+      </c>
+      <c r="U3">
+        <v>0.583</v>
+      </c>
+      <c r="V3">
+        <v>1.4</v>
+      </c>
+      <c r="W3">
+        <v>3.1</v>
+      </c>
+      <c r="X3">
+        <v>4.6</v>
+      </c>
+      <c r="Y3">
+        <v>2.8</v>
+      </c>
+      <c r="Z3">
+        <v>0.9</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2.8</v>
+      </c>
+      <c r="AC3">
+        <v>5.3</v>
+      </c>
+      <c r="AD3">
+        <v>17.4</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-714</v>
+      </c>
+      <c r="J4">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="K4">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="L4">
+        <v>-0.04499999999999998</v>
+      </c>
+      <c r="M4">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="N4">
+        <v>-0.5</v>
+      </c>
+      <c r="O4">
+        <v>-0.146</v>
+      </c>
+      <c r="P4">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Q4">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="R4">
+        <v>-0.02799999999999997</v>
+      </c>
+      <c r="S4">
+        <v>-2</v>
+      </c>
+      <c r="T4">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="U4">
+        <v>-0.2610000000000001</v>
+      </c>
+      <c r="V4">
+        <v>-0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Y4">
+        <v>-1.5</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1</v>
+      </c>
+      <c r="AB4">
+        <v>-0.8000000000000003</v>
+      </c>
+      <c r="AC4">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>-4.300000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1015</v>
+      </c>
+      <c r="J5">
+        <v>8.6</v>
+      </c>
+      <c r="K5">
+        <v>17.5</v>
+      </c>
+      <c r="L5">
+        <v>0.493</v>
+      </c>
+      <c r="M5">
+        <v>0.8</v>
+      </c>
+      <c r="N5">
+        <v>2.3</v>
+      </c>
+      <c r="O5">
+        <v>0.354</v>
+      </c>
+      <c r="P5">
+        <v>7.8</v>
+      </c>
+      <c r="Q5">
+        <v>15.2</v>
+      </c>
+      <c r="R5">
+        <v>0.514</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>4.9</v>
+      </c>
+      <c r="U5">
+        <v>0.8320000000000001</v>
+      </c>
+      <c r="V5">
+        <v>1.8</v>
+      </c>
+      <c r="W5">
+        <v>2.1</v>
+      </c>
+      <c r="X5">
+        <v>3.9</v>
+      </c>
+      <c r="Y5">
+        <v>3.1</v>
+      </c>
+      <c r="Z5">
+        <v>1.5</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>2.9</v>
+      </c>
+      <c r="AC5">
+        <v>4.7</v>
+      </c>
+      <c r="AD5">
+        <v>22.1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>133</v>
+      </c>
+      <c r="J6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K6">
+        <v>19.2</v>
+      </c>
+      <c r="L6">
+        <v>0.451</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>1.6</v>
+      </c>
+      <c r="O6">
+        <v>0.167</v>
+      </c>
+      <c r="P6">
+        <v>8.4</v>
+      </c>
+      <c r="Q6">
+        <v>17.6</v>
+      </c>
+      <c r="R6">
+        <v>0.477</v>
+      </c>
+      <c r="S6">
+        <v>4.1</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="V6">
+        <v>2.7</v>
+      </c>
+      <c r="W6">
+        <v>2.2</v>
+      </c>
+      <c r="X6">
+        <v>4.9</v>
+      </c>
+      <c r="Y6">
+        <v>5.4</v>
+      </c>
+      <c r="Z6">
+        <v>1.6</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>3.2</v>
+      </c>
+      <c r="AC6">
+        <v>5.7</v>
+      </c>
+      <c r="AD6">
+        <v>21.7</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>882</v>
+      </c>
+      <c r="J7">
+        <v>8.6</v>
+      </c>
+      <c r="K7">
+        <v>17.2</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <v>2.4</v>
+      </c>
+      <c r="O7">
+        <v>0.373</v>
+      </c>
+      <c r="P7">
+        <v>7.7</v>
+      </c>
+      <c r="Q7">
+        <v>14.8</v>
+      </c>
+      <c r="R7">
+        <v>0.521</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4.7</v>
+      </c>
+      <c r="U7">
+        <v>0.861</v>
+      </c>
+      <c r="V7">
+        <v>1.7</v>
+      </c>
+      <c r="W7">
+        <v>2.1</v>
+      </c>
+      <c r="X7">
+        <v>3.8</v>
+      </c>
+      <c r="Y7">
+        <v>2.7</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>2.8</v>
+      </c>
+      <c r="AC7">
+        <v>4.5</v>
+      </c>
+      <c r="AD7">
+        <v>22.2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>82</v>
+      </c>
+      <c r="I9">
+        <v>3027</v>
+      </c>
+      <c r="J9">
+        <v>7.9</v>
+      </c>
+      <c r="K9">
+        <v>15.6</v>
+      </c>
+      <c r="L9">
+        <v>0.508</v>
+      </c>
+      <c r="M9">
+        <v>1.5</v>
+      </c>
+      <c r="N9">
+        <v>3.3</v>
+      </c>
+      <c r="O9">
+        <v>0.444</v>
+      </c>
+      <c r="P9">
+        <v>6.5</v>
+      </c>
+      <c r="Q9">
+        <v>12.3</v>
+      </c>
+      <c r="R9">
+        <v>0.525</v>
+      </c>
+      <c r="S9">
+        <v>2.8</v>
+      </c>
+      <c r="T9">
+        <v>3.4</v>
+      </c>
+      <c r="U9">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="V9">
+        <v>1.2</v>
+      </c>
+      <c r="W9">
+        <v>1.9</v>
+      </c>
+      <c r="X9">
+        <v>3.1</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>1.2</v>
+      </c>
+      <c r="AA9">
+        <v>0.1</v>
+      </c>
+      <c r="AB9">
+        <v>2.6</v>
+      </c>
+      <c r="AC9">
+        <v>2.9</v>
+      </c>
+      <c r="AD9">
+        <v>20.1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>163</v>
+      </c>
+      <c r="J10">
+        <v>9.1</v>
+      </c>
+      <c r="K10">
+        <v>16.8</v>
+      </c>
+      <c r="L10">
+        <v>0.539</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>2.7</v>
+      </c>
+      <c r="O10">
+        <v>0.333</v>
+      </c>
+      <c r="P10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>14.1</v>
+      </c>
+      <c r="R10">
+        <v>0.578</v>
+      </c>
+      <c r="S10">
+        <v>2.4</v>
+      </c>
+      <c r="T10">
+        <v>2.9</v>
+      </c>
+      <c r="U10">
+        <v>0.846</v>
+      </c>
+      <c r="V10">
+        <v>0.9</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>2.2</v>
+      </c>
+      <c r="Y10">
+        <v>2.9</v>
+      </c>
+      <c r="Z10">
+        <v>0.9</v>
+      </c>
+      <c r="AA10">
+        <v>0.2</v>
+      </c>
+      <c r="AB10">
+        <v>1.8</v>
+      </c>
+      <c r="AC10">
+        <v>2.9</v>
+      </c>
+      <c r="AD10">
+        <v>21.4</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>-2864</v>
+      </c>
+      <c r="J11">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="K11">
+        <v>1.200000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="M11">
+        <v>-0.6</v>
+      </c>
+      <c r="N11">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="O11">
+        <v>-0.111</v>
+      </c>
+      <c r="P11">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>1.799999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.05299999999999994</v>
+      </c>
+      <c r="S11">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="T11">
+        <v>-0.5</v>
+      </c>
+      <c r="U11">
+        <v>0.03800000000000003</v>
+      </c>
+      <c r="V11">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="W11">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="X11">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.1</v>
+      </c>
+      <c r="AB11">
+        <v>-0.8</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>2660</v>
+      </c>
+      <c r="J12">
+        <v>7.9</v>
+      </c>
+      <c r="K12">
+        <v>15.3</v>
+      </c>
+      <c r="L12">
+        <v>0.518</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2.3</v>
+      </c>
+      <c r="O12">
+        <v>0.449</v>
+      </c>
+      <c r="P12">
+        <v>6.9</v>
+      </c>
+      <c r="Q12">
+        <v>13.1</v>
+      </c>
+      <c r="R12">
+        <v>0.529</v>
+      </c>
+      <c r="S12">
+        <v>4.3</v>
+      </c>
+      <c r="T12">
+        <v>4.9</v>
+      </c>
+      <c r="U12">
+        <v>0.87</v>
+      </c>
+      <c r="V12">
+        <v>0.6</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2.6</v>
+      </c>
+      <c r="Y12">
+        <v>3.3</v>
+      </c>
+      <c r="Z12">
+        <v>1.3</v>
+      </c>
+      <c r="AA12">
+        <v>0.2</v>
+      </c>
+      <c r="AB12">
+        <v>2.8</v>
+      </c>
+      <c r="AC12">
+        <v>3.2</v>
+      </c>
+      <c r="AD12">
+        <v>21.2</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>193</v>
+      </c>
+      <c r="J13">
+        <v>5.6</v>
+      </c>
+      <c r="K13">
+        <v>12.3</v>
+      </c>
+      <c r="L13">
+        <v>0.455</v>
+      </c>
+      <c r="M13">
+        <v>0.4</v>
+      </c>
+      <c r="N13">
+        <v>1.1</v>
+      </c>
+      <c r="O13">
+        <v>0.333</v>
+      </c>
+      <c r="P13">
+        <v>5.2</v>
+      </c>
+      <c r="Q13">
+        <v>11.2</v>
+      </c>
+      <c r="R13">
+        <v>0.467</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3.7</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>0.4</v>
+      </c>
+      <c r="W13">
+        <v>1.3</v>
+      </c>
+      <c r="X13">
+        <v>1.7</v>
+      </c>
+      <c r="Y13">
+        <v>1.7</v>
+      </c>
+      <c r="Z13">
+        <v>0.4</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>4.1</v>
+      </c>
+      <c r="AC13">
+        <v>3.4</v>
+      </c>
+      <c r="AD13">
+        <v>14.5</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>-2467</v>
+      </c>
+      <c r="J14">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="K14">
+        <v>-3</v>
+      </c>
+      <c r="L14">
+        <v>-0.063</v>
+      </c>
+      <c r="M14">
+        <v>-0.6</v>
+      </c>
+      <c r="N14">
+        <v>-1.2</v>
+      </c>
+      <c r="O14">
+        <v>-0.116</v>
+      </c>
+      <c r="P14">
+        <v>-1.7</v>
+      </c>
+      <c r="Q14">
+        <v>-1.9</v>
+      </c>
+      <c r="R14">
+        <v>-0.062</v>
+      </c>
+      <c r="S14">
+        <v>-1.3</v>
+      </c>
+      <c r="T14">
+        <v>-1.2</v>
+      </c>
+      <c r="U14">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="V14">
+        <v>-0.2</v>
+      </c>
+      <c r="W14">
+        <v>-0.7</v>
+      </c>
+      <c r="X14">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>-1.6</v>
+      </c>
+      <c r="Z14">
+        <v>-0.9</v>
+      </c>
+      <c r="AA14">
+        <v>-0.2</v>
+      </c>
+      <c r="AB14">
+        <v>1.3</v>
+      </c>
+      <c r="AC14">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="AD14">
+        <v>-6.699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>195</v>
+      </c>
+      <c r="H15">
+        <v>149</v>
+      </c>
+      <c r="I15">
+        <v>6569</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>15.7</v>
+      </c>
+      <c r="L15">
+        <v>0.511</v>
+      </c>
+      <c r="M15">
+        <v>1.2</v>
+      </c>
+      <c r="N15">
+        <v>2.8</v>
+      </c>
+      <c r="O15">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="P15">
+        <v>6.8</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>0.526</v>
+      </c>
+      <c r="S15">
+        <v>3.5</v>
+      </c>
+      <c r="T15">
+        <v>4.2</v>
+      </c>
+      <c r="U15">
+        <v>0.846</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>3.1</v>
+      </c>
+      <c r="Z15">
+        <v>1.3</v>
+      </c>
+      <c r="AA15">
+        <v>0.1</v>
+      </c>
+      <c r="AB15">
+        <v>2.7</v>
+      </c>
+      <c r="AC15">
+        <v>3.3</v>
+      </c>
+      <c r="AD15">
+        <v>20.8</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>356</v>
+      </c>
+      <c r="J16">
+        <v>7.2</v>
+      </c>
+      <c r="K16">
+        <v>14.4</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.6</v>
+      </c>
+      <c r="N16">
+        <v>1.8</v>
+      </c>
+      <c r="O16">
+        <v>0.333</v>
+      </c>
+      <c r="P16">
+        <v>6.6</v>
+      </c>
+      <c r="Q16">
+        <v>12.5</v>
+      </c>
+      <c r="R16">
+        <v>0.524</v>
+      </c>
+      <c r="S16">
+        <v>2.7</v>
+      </c>
+      <c r="T16">
+        <v>3.3</v>
+      </c>
+      <c r="U16">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="V16">
+        <v>0.6</v>
+      </c>
+      <c r="W16">
+        <v>1.3</v>
+      </c>
+      <c r="X16">
+        <v>1.9</v>
+      </c>
+      <c r="Y16">
+        <v>2.2</v>
+      </c>
+      <c r="Z16">
+        <v>0.6</v>
+      </c>
+      <c r="AA16">
+        <v>0.1</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>3.1</v>
+      </c>
+      <c r="AD16">
+        <v>17.7</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>-6213</v>
+      </c>
+      <c r="J17">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="K17">
+        <v>-1.299999999999999</v>
+      </c>
+      <c r="L17">
+        <v>-0.01100000000000001</v>
+      </c>
+      <c r="M17">
+        <v>-0.6</v>
+      </c>
+      <c r="N17">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="O17">
+        <v>-0.1040000000000001</v>
+      </c>
+      <c r="P17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>-0.5</v>
+      </c>
+      <c r="R17">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="S17">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="T17">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="U17">
+        <v>-0.02800000000000002</v>
+      </c>
+      <c r="V17">
+        <v>-0.4</v>
+      </c>
+      <c r="W17">
+        <v>-0.7</v>
+      </c>
+      <c r="X17">
+        <v>-1.1</v>
+      </c>
+      <c r="Y17">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="Z17">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC17">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="AD17">
+        <v>-3.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>95</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1100</v>
+      </c>
+      <c r="J18">
+        <v>7.8</v>
+      </c>
+      <c r="K18">
+        <v>16.3</v>
+      </c>
+      <c r="L18">
+        <v>0.48</v>
+      </c>
+      <c r="M18">
+        <v>1.1</v>
+      </c>
+      <c r="N18">
+        <v>2.6</v>
+      </c>
+      <c r="O18">
+        <v>0.4379999999999999</v>
+      </c>
+      <c r="P18">
+        <v>6.7</v>
+      </c>
+      <c r="Q18">
+        <v>13.7</v>
+      </c>
+      <c r="R18">
+        <v>0.488</v>
+      </c>
+      <c r="S18">
+        <v>4.9</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>2.3</v>
+      </c>
+      <c r="X18">
+        <v>4.2</v>
+      </c>
+      <c r="Y18">
+        <v>4.5</v>
+      </c>
+      <c r="Z18">
+        <v>0.9</v>
+      </c>
+      <c r="AA18">
+        <v>0.1</v>
+      </c>
+      <c r="AB18">
+        <v>3.5</v>
+      </c>
+      <c r="AC18">
+        <v>5.1</v>
+      </c>
+      <c r="AD18">
+        <v>21.7</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>253</v>
+      </c>
+      <c r="J19">
+        <v>6.8</v>
+      </c>
+      <c r="K19">
+        <v>15.5</v>
+      </c>
+      <c r="L19">
+        <v>0.44</v>
+      </c>
+      <c r="M19">
+        <v>0.7</v>
+      </c>
+      <c r="N19">
+        <v>2.3</v>
+      </c>
+      <c r="O19">
+        <v>0.313</v>
+      </c>
+      <c r="P19">
+        <v>6.1</v>
+      </c>
+      <c r="Q19">
+        <v>13.2</v>
+      </c>
+      <c r="R19">
+        <v>0.462</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>5.1</v>
+      </c>
+      <c r="U19">
+        <v>0.583</v>
+      </c>
+      <c r="V19">
+        <v>1.4</v>
+      </c>
+      <c r="W19">
+        <v>3.1</v>
+      </c>
+      <c r="X19">
+        <v>4.6</v>
+      </c>
+      <c r="Y19">
+        <v>2.8</v>
+      </c>
+      <c r="Z19">
+        <v>0.9</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2.8</v>
+      </c>
+      <c r="AC19">
+        <v>5.3</v>
+      </c>
+      <c r="AD19">
+        <v>17.4</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>-847</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="L20">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="M20">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="N20">
+        <v>-0.3000000000000003</v>
+      </c>
+      <c r="O20">
+        <v>-0.1249999999999999</v>
+      </c>
+      <c r="P20">
+        <v>-0.6000000000000005</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>-0.02599999999999997</v>
+      </c>
+      <c r="S20">
+        <v>-1.9</v>
+      </c>
+      <c r="T20">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="U20">
+        <v>-0.2410000000000001</v>
+      </c>
+      <c r="V20">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="W20">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="X20">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="Y20">
+        <v>-1.7</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>-0.1</v>
+      </c>
+      <c r="AB20">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="AC20">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD20">
+        <v>-4.300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>290</v>
+      </c>
+      <c r="H21">
+        <v>149</v>
+      </c>
+      <c r="I21">
+        <v>7669</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>15.8</v>
+      </c>
+      <c r="L21">
+        <v>0.506</v>
+      </c>
+      <c r="M21">
+        <v>1.2</v>
+      </c>
+      <c r="N21">
+        <v>2.7</v>
+      </c>
+      <c r="O21">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="P21">
+        <v>6.8</v>
+      </c>
+      <c r="Q21">
+        <v>13.1</v>
+      </c>
+      <c r="R21">
+        <v>0.52</v>
+      </c>
+      <c r="S21">
+        <v>3.7</v>
+      </c>
+      <c r="T21">
+        <v>4.4</v>
+      </c>
+      <c r="U21">
+        <v>0.841</v>
+      </c>
+      <c r="V21">
+        <v>1.1</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>3.1</v>
+      </c>
+      <c r="Y21">
+        <v>3.3</v>
+      </c>
+      <c r="Z21">
+        <v>1.2</v>
+      </c>
+      <c r="AA21">
+        <v>0.1</v>
+      </c>
+      <c r="AB21">
+        <v>2.8</v>
+      </c>
+      <c r="AC21">
+        <v>3.5</v>
+      </c>
+      <c r="AD21">
+        <v>20.9</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>609</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>14.8</v>
+      </c>
+      <c r="L22">
+        <v>0.474</v>
+      </c>
+      <c r="M22">
+        <v>0.7</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>0.324</v>
+      </c>
+      <c r="P22">
+        <v>6.4</v>
+      </c>
+      <c r="Q22">
+        <v>12.8</v>
+      </c>
+      <c r="R22">
+        <v>0.498</v>
+      </c>
+      <c r="S22">
+        <v>2.8</v>
+      </c>
+      <c r="T22">
+        <v>4.1</v>
+      </c>
+      <c r="U22">
+        <v>0.696</v>
+      </c>
+      <c r="V22">
+        <v>0.9</v>
+      </c>
+      <c r="W22">
+        <v>2.1</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <v>0.7</v>
+      </c>
+      <c r="AA22">
+        <v>0.1</v>
+      </c>
+      <c r="AB22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <v>17.6</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>-7060</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-0.03200000000000003</v>
+      </c>
+      <c r="M23">
+        <v>-0.5</v>
+      </c>
+      <c r="N23">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="O23">
+        <v>-0.113</v>
+      </c>
+      <c r="P23">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="Q23">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="R23">
+        <v>-0.02200000000000002</v>
+      </c>
+      <c r="S23">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="T23">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="U23">
+        <v>-0.145</v>
+      </c>
+      <c r="V23">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="X23">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AC23">
+        <v>0.5</v>
+      </c>
+      <c r="AD23">
+        <v>-3.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>967</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>20.7</v>
+      </c>
+      <c r="L2">
+        <v>0.485</v>
+      </c>
+      <c r="M2">
+        <v>1.6</v>
+      </c>
+      <c r="N2">
+        <v>3.6</v>
+      </c>
+      <c r="O2">
+        <v>0.459</v>
+      </c>
+      <c r="P2">
+        <v>8.4</v>
+      </c>
+      <c r="Q2">
+        <v>17.1</v>
+      </c>
+      <c r="R2">
+        <v>0.49</v>
+      </c>
+      <c r="S2">
+        <v>6.6</v>
+      </c>
+      <c r="T2">
+        <v>7.8</v>
+      </c>
+      <c r="U2">
+        <v>0.8440000000000001</v>
+      </c>
+      <c r="V2">
+        <v>2.4</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>5.4</v>
+      </c>
+      <c r="Y2">
+        <v>5.6</v>
+      </c>
+      <c r="Z2">
+        <v>1.1</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>4.7</v>
+      </c>
+      <c r="AC2">
+        <v>6.5</v>
+      </c>
+      <c r="AD2">
+        <v>28.3</v>
+      </c>
+      <c r="AF2">
+        <v>113</v>
+      </c>
+      <c r="AG2">
+        <v>109</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>253</v>
+      </c>
+      <c r="J3">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K3">
+        <v>20.8</v>
+      </c>
+      <c r="L3">
+        <v>0.44</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3.1</v>
+      </c>
+      <c r="O3">
+        <v>0.313</v>
+      </c>
+      <c r="P3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>17.8</v>
+      </c>
+      <c r="R3">
+        <v>0.462</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>6.9</v>
+      </c>
+      <c r="U3">
+        <v>0.583</v>
+      </c>
+      <c r="V3">
+        <v>1.9</v>
+      </c>
+      <c r="W3">
+        <v>4.2</v>
+      </c>
+      <c r="X3">
+        <v>6.1</v>
+      </c>
+      <c r="Y3">
+        <v>3.8</v>
+      </c>
+      <c r="Z3">
+        <v>1.1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>3.8</v>
+      </c>
+      <c r="AC3">
+        <v>7.1</v>
+      </c>
+      <c r="AD3">
+        <v>23.3</v>
+      </c>
+      <c r="AF3">
+        <v>96</v>
+      </c>
+      <c r="AG3">
+        <v>111</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-714</v>
+      </c>
+      <c r="J4">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="K4">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="L4">
+        <v>-0.04499999999999998</v>
+      </c>
+      <c r="M4">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="N4">
+        <v>-0.5</v>
+      </c>
+      <c r="O4">
+        <v>-0.146</v>
+      </c>
+      <c r="P4">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="Q4">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="R4">
+        <v>-0.02799999999999997</v>
+      </c>
+      <c r="S4">
+        <v>-2.6</v>
+      </c>
+      <c r="T4">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="U4">
+        <v>-0.2610000000000001</v>
+      </c>
+      <c r="V4">
+        <v>-0.5</v>
+      </c>
+      <c r="W4">
+        <v>1.2</v>
+      </c>
+      <c r="X4">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="Y4">
+        <v>-1.8</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1</v>
+      </c>
+      <c r="AB4">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="AD4">
+        <v>-5</v>
+      </c>
+      <c r="AF4">
+        <v>-17</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1015</v>
+      </c>
+      <c r="J5">
+        <v>11.6</v>
+      </c>
+      <c r="K5">
+        <v>23.5</v>
+      </c>
+      <c r="L5">
+        <v>0.493</v>
+      </c>
+      <c r="M5">
+        <v>1.1</v>
+      </c>
+      <c r="N5">
+        <v>3.1</v>
+      </c>
+      <c r="O5">
+        <v>0.354</v>
+      </c>
+      <c r="P5">
+        <v>10.5</v>
+      </c>
+      <c r="Q5">
+        <v>20.4</v>
+      </c>
+      <c r="R5">
+        <v>0.514</v>
+      </c>
+      <c r="S5">
+        <v>5.4</v>
+      </c>
+      <c r="T5">
+        <v>6.5</v>
+      </c>
+      <c r="U5">
+        <v>0.8320000000000001</v>
+      </c>
+      <c r="V5">
+        <v>2.4</v>
+      </c>
+      <c r="W5">
+        <v>2.8</v>
+      </c>
+      <c r="X5">
+        <v>5.2</v>
+      </c>
+      <c r="Y5">
+        <v>4.1</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>3.9</v>
+      </c>
+      <c r="AC5">
+        <v>6.3</v>
+      </c>
+      <c r="AD5">
+        <v>29.6</v>
+      </c>
+      <c r="AF5">
+        <v>111</v>
+      </c>
+      <c r="AG5">
+        <v>110</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>133</v>
+      </c>
+      <c r="J6">
+        <v>11.5</v>
+      </c>
+      <c r="K6">
+        <v>25.5</v>
+      </c>
+      <c r="L6">
+        <v>0.451</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>2.2</v>
+      </c>
+      <c r="O6">
+        <v>0.167</v>
+      </c>
+      <c r="P6">
+        <v>11.1</v>
+      </c>
+      <c r="Q6">
+        <v>23.3</v>
+      </c>
+      <c r="R6">
+        <v>0.477</v>
+      </c>
+      <c r="S6">
+        <v>5.4</v>
+      </c>
+      <c r="T6">
+        <v>7.9</v>
+      </c>
+      <c r="U6">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="V6">
+        <v>3.6</v>
+      </c>
+      <c r="W6">
+        <v>2.9</v>
+      </c>
+      <c r="X6">
+        <v>6.5</v>
+      </c>
+      <c r="Y6">
+        <v>7.2</v>
+      </c>
+      <c r="Z6">
+        <v>2.2</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>4.3</v>
+      </c>
+      <c r="AC6">
+        <v>7.5</v>
+      </c>
+      <c r="AD6">
+        <v>28.7</v>
+      </c>
+      <c r="AF6">
+        <v>104</v>
+      </c>
+      <c r="AG6">
+        <v>107</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>882</v>
+      </c>
+      <c r="J7">
+        <v>11.6</v>
+      </c>
+      <c r="K7">
+        <v>23.1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>1.2</v>
+      </c>
+      <c r="N7">
+        <v>3.2</v>
+      </c>
+      <c r="O7">
+        <v>0.373</v>
+      </c>
+      <c r="P7">
+        <v>10.4</v>
+      </c>
+      <c r="Q7">
+        <v>19.9</v>
+      </c>
+      <c r="R7">
+        <v>0.521</v>
+      </c>
+      <c r="S7">
+        <v>5.4</v>
+      </c>
+      <c r="T7">
+        <v>6.3</v>
+      </c>
+      <c r="U7">
+        <v>0.861</v>
+      </c>
+      <c r="V7">
+        <v>2.2</v>
+      </c>
+      <c r="W7">
+        <v>2.8</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>3.6</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7">
+        <v>3.8</v>
+      </c>
+      <c r="AC7">
+        <v>6.1</v>
+      </c>
+      <c r="AD7">
+        <v>29.8</v>
+      </c>
+      <c r="AF7">
+        <v>112</v>
+      </c>
+      <c r="AG7">
+        <v>110</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>82</v>
+      </c>
+      <c r="I9">
+        <v>3027</v>
+      </c>
+      <c r="J9">
+        <v>10.8</v>
+      </c>
+      <c r="K9">
+        <v>21.3</v>
+      </c>
+      <c r="L9">
+        <v>0.508</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4.5</v>
+      </c>
+      <c r="O9">
+        <v>0.444</v>
+      </c>
+      <c r="P9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>16.8</v>
+      </c>
+      <c r="R9">
+        <v>0.525</v>
+      </c>
+      <c r="S9">
+        <v>3.8</v>
+      </c>
+      <c r="T9">
+        <v>4.6</v>
+      </c>
+      <c r="U9">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="V9">
+        <v>1.6</v>
+      </c>
+      <c r="W9">
+        <v>2.6</v>
+      </c>
+      <c r="X9">
+        <v>4.2</v>
+      </c>
+      <c r="Y9">
+        <v>4.1</v>
+      </c>
+      <c r="Z9">
+        <v>1.7</v>
+      </c>
+      <c r="AA9">
+        <v>0.2</v>
+      </c>
+      <c r="AB9">
+        <v>3.5</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>27.4</v>
+      </c>
+      <c r="AF9">
+        <v>116</v>
+      </c>
+      <c r="AG9">
+        <v>113</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>163</v>
+      </c>
+      <c r="J10">
+        <v>12.5</v>
+      </c>
+      <c r="K10">
+        <v>23.1</v>
+      </c>
+      <c r="L10">
+        <v>0.539</v>
+      </c>
+      <c r="M10">
+        <v>1.2</v>
+      </c>
+      <c r="N10">
+        <v>3.6</v>
+      </c>
+      <c r="O10">
+        <v>0.333</v>
+      </c>
+      <c r="P10">
+        <v>11.2</v>
+      </c>
+      <c r="Q10">
+        <v>19.4</v>
+      </c>
+      <c r="R10">
+        <v>0.578</v>
+      </c>
+      <c r="S10">
+        <v>3.3</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0.846</v>
+      </c>
+      <c r="V10">
+        <v>1.2</v>
+      </c>
+      <c r="W10">
+        <v>1.8</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>1.2</v>
+      </c>
+      <c r="AA10">
+        <v>0.3</v>
+      </c>
+      <c r="AB10">
+        <v>2.4</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>29.5</v>
+      </c>
+      <c r="AF10">
+        <v>118</v>
+      </c>
+      <c r="AG10">
+        <v>120</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>-2864</v>
+      </c>
+      <c r="J11">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="K11">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="M11">
+        <v>-0.8</v>
+      </c>
+      <c r="N11">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="O11">
+        <v>-0.111</v>
+      </c>
+      <c r="P11">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>2.599999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.05299999999999994</v>
+      </c>
+      <c r="S11">
+        <v>-0.5</v>
+      </c>
+      <c r="T11">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.03800000000000003</v>
+      </c>
+      <c r="V11">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="W11">
+        <v>-0.8</v>
+      </c>
+      <c r="X11">
+        <v>-1.2</v>
+      </c>
+      <c r="Y11">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Z11">
+        <v>-0.5</v>
+      </c>
+      <c r="AA11">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AB11">
+        <v>-1.1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>2660</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>21.3</v>
+      </c>
+      <c r="L12">
+        <v>0.518</v>
+      </c>
+      <c r="M12">
+        <v>1.4</v>
+      </c>
+      <c r="N12">
+        <v>3.1</v>
+      </c>
+      <c r="O12">
+        <v>0.449</v>
+      </c>
+      <c r="P12">
+        <v>9.6</v>
+      </c>
+      <c r="Q12">
+        <v>18.2</v>
+      </c>
+      <c r="R12">
+        <v>0.529</v>
+      </c>
+      <c r="S12">
+        <v>5.9</v>
+      </c>
+      <c r="T12">
+        <v>6.8</v>
+      </c>
+      <c r="U12">
+        <v>0.87</v>
+      </c>
+      <c r="V12">
+        <v>0.8</v>
+      </c>
+      <c r="W12">
+        <v>2.8</v>
+      </c>
+      <c r="X12">
+        <v>3.6</v>
+      </c>
+      <c r="Y12">
+        <v>4.6</v>
+      </c>
+      <c r="Z12">
+        <v>1.8</v>
+      </c>
+      <c r="AA12">
+        <v>0.2</v>
+      </c>
+      <c r="AB12">
+        <v>3.8</v>
+      </c>
+      <c r="AC12">
+        <v>4.5</v>
+      </c>
+      <c r="AD12">
+        <v>29.4</v>
+      </c>
+      <c r="AF12">
+        <v>116</v>
+      </c>
+      <c r="AG12">
+        <v>109</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>193</v>
+      </c>
+      <c r="J13">
+        <v>8.1</v>
+      </c>
+      <c r="K13">
+        <v>17.9</v>
+      </c>
+      <c r="L13">
+        <v>0.455</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>1.6</v>
+      </c>
+      <c r="O13">
+        <v>0.333</v>
+      </c>
+      <c r="P13">
+        <v>7.6</v>
+      </c>
+      <c r="Q13">
+        <v>16.2</v>
+      </c>
+      <c r="R13">
+        <v>0.467</v>
+      </c>
+      <c r="S13">
+        <v>4.3</v>
+      </c>
+      <c r="T13">
+        <v>5.4</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>1.9</v>
+      </c>
+      <c r="X13">
+        <v>2.4</v>
+      </c>
+      <c r="Y13">
+        <v>2.4</v>
+      </c>
+      <c r="Z13">
+        <v>0.5</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <v>4.9</v>
+      </c>
+      <c r="AD13">
+        <v>21.1</v>
+      </c>
+      <c r="AF13">
+        <v>86</v>
+      </c>
+      <c r="AG13">
+        <v>113</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>-2467</v>
+      </c>
+      <c r="J14">
+        <v>-2.9</v>
+      </c>
+      <c r="K14">
+        <v>-3.400000000000002</v>
+      </c>
+      <c r="L14">
+        <v>-0.063</v>
+      </c>
+      <c r="M14">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="N14">
+        <v>-1.5</v>
+      </c>
+      <c r="O14">
+        <v>-0.116</v>
+      </c>
+      <c r="P14">
+        <v>-2</v>
+      </c>
+      <c r="Q14">
+        <v>-2</v>
+      </c>
+      <c r="R14">
+        <v>-0.062</v>
+      </c>
+      <c r="S14">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="T14">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="U14">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="V14">
+        <v>-0.3</v>
+      </c>
+      <c r="W14">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="X14">
+        <v>-1.2</v>
+      </c>
+      <c r="Y14">
+        <v>-2.2</v>
+      </c>
+      <c r="Z14">
+        <v>-1.3</v>
+      </c>
+      <c r="AA14">
+        <v>-0.2</v>
+      </c>
+      <c r="AB14">
+        <v>2.2</v>
+      </c>
+      <c r="AC14">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="AD14">
+        <v>-8.299999999999997</v>
+      </c>
+      <c r="AF14">
+        <v>-30</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>195</v>
+      </c>
+      <c r="H15">
+        <v>149</v>
+      </c>
+      <c r="I15">
+        <v>6569</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>21.5</v>
+      </c>
+      <c r="L15">
+        <v>0.511</v>
+      </c>
+      <c r="M15">
+        <v>1.7</v>
+      </c>
+      <c r="N15">
+        <v>3.8</v>
+      </c>
+      <c r="O15">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="P15">
+        <v>9.4</v>
+      </c>
+      <c r="Q15">
+        <v>17.8</v>
+      </c>
+      <c r="R15">
+        <v>0.526</v>
+      </c>
+      <c r="S15">
+        <v>4.8</v>
+      </c>
+      <c r="T15">
+        <v>5.7</v>
+      </c>
+      <c r="U15">
+        <v>0.846</v>
+      </c>
+      <c r="V15">
+        <v>1.4</v>
+      </c>
+      <c r="W15">
+        <v>2.7</v>
+      </c>
+      <c r="X15">
+        <v>4.1</v>
+      </c>
+      <c r="Y15">
+        <v>4.2</v>
+      </c>
+      <c r="Z15">
+        <v>1.8</v>
+      </c>
+      <c r="AA15">
+        <v>0.2</v>
+      </c>
+      <c r="AB15">
+        <v>3.7</v>
+      </c>
+      <c r="AC15">
+        <v>4.5</v>
+      </c>
+      <c r="AD15">
+        <v>28.5</v>
+      </c>
+      <c r="AF15">
+        <v>115</v>
+      </c>
+      <c r="AG15">
+        <v>111</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>356</v>
+      </c>
+      <c r="J16">
+        <v>10.2</v>
+      </c>
+      <c r="K16">
+        <v>20.3</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+      <c r="N16">
+        <v>2.6</v>
+      </c>
+      <c r="O16">
+        <v>0.333</v>
+      </c>
+      <c r="P16">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>17.8</v>
+      </c>
+      <c r="R16">
+        <v>0.524</v>
+      </c>
+      <c r="S16">
+        <v>3.9</v>
+      </c>
+      <c r="T16">
+        <v>4.7</v>
+      </c>
+      <c r="U16">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="V16">
+        <v>0.9</v>
+      </c>
+      <c r="W16">
+        <v>1.9</v>
+      </c>
+      <c r="X16">
+        <v>2.7</v>
+      </c>
+      <c r="Y16">
+        <v>3.1</v>
+      </c>
+      <c r="Z16">
+        <v>0.9</v>
+      </c>
+      <c r="AA16">
+        <v>0.1</v>
+      </c>
+      <c r="AB16">
+        <v>4.3</v>
+      </c>
+      <c r="AC16">
+        <v>4.4</v>
+      </c>
+      <c r="AD16">
+        <v>25.1</v>
+      </c>
+      <c r="AF16">
+        <v>100</v>
+      </c>
+      <c r="AG16">
+        <v>116</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>-6213</v>
+      </c>
+      <c r="J17">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="K17">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="L17">
+        <v>-0.01100000000000001</v>
+      </c>
+      <c r="M17">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="N17">
+        <v>-1.2</v>
+      </c>
+      <c r="O17">
+        <v>-0.1040000000000001</v>
+      </c>
+      <c r="P17">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="S17">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
+      <c r="U17">
+        <v>-0.02800000000000002</v>
+      </c>
+      <c r="V17">
+        <v>-0.4999999999999999</v>
+      </c>
+      <c r="W17">
+        <v>-0.8000000000000003</v>
+      </c>
+      <c r="X17">
+        <v>-1.399999999999999</v>
+      </c>
+      <c r="Y17">
+        <v>-1.1</v>
+      </c>
+      <c r="Z17">
+        <v>-0.9</v>
+      </c>
+      <c r="AA17">
+        <v>-0.1</v>
+      </c>
+      <c r="AB17">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="AC17">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="AD17">
+        <v>-3.399999999999999</v>
+      </c>
+      <c r="AF17">
+        <v>-15</v>
+      </c>
+      <c r="AG17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>95</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1100</v>
+      </c>
+      <c r="J18">
+        <v>10.2</v>
+      </c>
+      <c r="K18">
+        <v>21.3</v>
+      </c>
+      <c r="L18">
+        <v>0.48</v>
+      </c>
+      <c r="M18">
+        <v>1.5</v>
+      </c>
+      <c r="N18">
+        <v>3.4</v>
+      </c>
+      <c r="O18">
+        <v>0.4379999999999999</v>
+      </c>
+      <c r="P18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>17.9</v>
+      </c>
+      <c r="R18">
+        <v>0.488</v>
+      </c>
+      <c r="S18">
+        <v>6.4</v>
+      </c>
+      <c r="T18">
+        <v>7.8</v>
+      </c>
+      <c r="U18">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="V18">
+        <v>2.6</v>
+      </c>
+      <c r="W18">
+        <v>2.9</v>
+      </c>
+      <c r="X18">
+        <v>5.5</v>
+      </c>
+      <c r="Y18">
+        <v>5.8</v>
+      </c>
+      <c r="Z18">
+        <v>1.2</v>
+      </c>
+      <c r="AA18">
+        <v>0.1</v>
+      </c>
+      <c r="AB18">
+        <v>4.6</v>
+      </c>
+      <c r="AC18">
+        <v>6.6</v>
+      </c>
+      <c r="AD18">
+        <v>28.3</v>
+      </c>
+      <c r="AF18">
+        <v>112</v>
+      </c>
+      <c r="AG18">
+        <v>108</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>253</v>
+      </c>
+      <c r="J19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K19">
+        <v>20.8</v>
+      </c>
+      <c r="L19">
+        <v>0.44</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3.1</v>
+      </c>
+      <c r="O19">
+        <v>0.313</v>
+      </c>
+      <c r="P19">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>17.8</v>
+      </c>
+      <c r="R19">
+        <v>0.462</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>6.9</v>
+      </c>
+      <c r="U19">
+        <v>0.583</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>4.2</v>
+      </c>
+      <c r="X19">
+        <v>6.1</v>
+      </c>
+      <c r="Y19">
+        <v>3.8</v>
+      </c>
+      <c r="Z19">
+        <v>1.1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>3.8</v>
+      </c>
+      <c r="AC19">
+        <v>7.1</v>
+      </c>
+      <c r="AD19">
+        <v>23.3</v>
+      </c>
+      <c r="AF19">
+        <v>96</v>
+      </c>
+      <c r="AG19">
+        <v>111</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>-847</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-0.5</v>
+      </c>
+      <c r="L20">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="M20">
+        <v>-0.5</v>
+      </c>
+      <c r="N20">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="O20">
+        <v>-0.1249999999999999</v>
+      </c>
+      <c r="P20">
+        <v>-0.5</v>
+      </c>
+      <c r="Q20">
+        <v>-0.09999999999999787</v>
+      </c>
+      <c r="R20">
+        <v>-0.02599999999999997</v>
+      </c>
+      <c r="S20">
+        <v>-2.4</v>
+      </c>
+      <c r="T20">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="U20">
+        <v>-0.2410000000000001</v>
+      </c>
+      <c r="V20">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="W20">
+        <v>1.3</v>
+      </c>
+      <c r="X20">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Y20">
+        <v>-2</v>
+      </c>
+      <c r="Z20">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="AA20">
+        <v>-0.1</v>
+      </c>
+      <c r="AB20">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AC20">
+        <v>0.5</v>
+      </c>
+      <c r="AD20">
+        <v>-5</v>
+      </c>
+      <c r="AF20">
+        <v>-16</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>290</v>
+      </c>
+      <c r="H21">
+        <v>149</v>
+      </c>
+      <c r="I21">
+        <v>7669</v>
+      </c>
+      <c r="J21">
+        <v>10.9</v>
+      </c>
+      <c r="K21">
+        <v>21.5</v>
+      </c>
+      <c r="L21">
+        <v>0.506</v>
+      </c>
+      <c r="M21">
+        <v>1.6</v>
+      </c>
+      <c r="N21">
+        <v>3.7</v>
+      </c>
+      <c r="O21">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="P21">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>17.8</v>
+      </c>
+      <c r="R21">
+        <v>0.52</v>
+      </c>
+      <c r="S21">
+        <v>5.1</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>0.841</v>
+      </c>
+      <c r="V21">
+        <v>1.5</v>
+      </c>
+      <c r="W21">
+        <v>2.7</v>
+      </c>
+      <c r="X21">
+        <v>4.3</v>
+      </c>
+      <c r="Y21">
+        <v>4.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.7</v>
+      </c>
+      <c r="AA21">
+        <v>0.2</v>
+      </c>
+      <c r="AB21">
+        <v>3.8</v>
+      </c>
+      <c r="AC21">
+        <v>4.8</v>
+      </c>
+      <c r="AD21">
+        <v>28.5</v>
+      </c>
+      <c r="AF21">
+        <v>115</v>
+      </c>
+      <c r="AG21">
+        <v>110</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>609</v>
+      </c>
+      <c r="J22">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K22">
+        <v>20.5</v>
+      </c>
+      <c r="L22">
+        <v>0.474</v>
+      </c>
+      <c r="M22">
+        <v>0.9</v>
+      </c>
+      <c r="N22">
+        <v>2.8</v>
+      </c>
+      <c r="O22">
+        <v>0.324</v>
+      </c>
+      <c r="P22">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>17.8</v>
+      </c>
+      <c r="R22">
+        <v>0.498</v>
+      </c>
+      <c r="S22">
+        <v>3.9</v>
+      </c>
+      <c r="T22">
+        <v>5.6</v>
+      </c>
+      <c r="U22">
+        <v>0.696</v>
+      </c>
+      <c r="V22">
+        <v>1.3</v>
+      </c>
+      <c r="W22">
+        <v>2.9</v>
+      </c>
+      <c r="X22">
+        <v>4.2</v>
+      </c>
+      <c r="Y22">
+        <v>3.4</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0.1</v>
+      </c>
+      <c r="AB22">
+        <v>4.1</v>
+      </c>
+      <c r="AC22">
+        <v>5.6</v>
+      </c>
+      <c r="AD22">
+        <v>24.3</v>
+      </c>
+      <c r="AF22">
+        <v>99</v>
+      </c>
+      <c r="AG22">
+        <v>114</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>-7060</v>
+      </c>
+      <c r="J23">
+        <v>-1.200000000000001</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-0.03200000000000003</v>
+      </c>
+      <c r="M23">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="N23">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="O23">
+        <v>-0.113</v>
+      </c>
+      <c r="P23">
+        <v>-0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>-0.02200000000000002</v>
+      </c>
+      <c r="S23">
+        <v>-1.2</v>
+      </c>
+      <c r="T23">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="U23">
+        <v>-0.145</v>
+      </c>
+      <c r="V23">
+        <v>-0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="X23">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Y23">
+        <v>-1.1</v>
+      </c>
+      <c r="Z23">
+        <v>-0.7</v>
+      </c>
+      <c r="AA23">
+        <v>-0.1</v>
+      </c>
+      <c r="AB23">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC23">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AD23">
+        <v>-4.199999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>-16</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2715,70 +6668,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/petrodr01.xlsx
+++ b/output/petrodr01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -849,7 +849,7 @@
         <v>2.1</v>
       </c>
       <c r="V8">
-        <v>0.8440000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="W8">
         <v>0.6</v>
@@ -984,9 +984,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>0.09999999999999964</v>
-      </c>
       <c r="J10">
         <v>-0.3000000000000003</v>
       </c>
@@ -1015,7 +1012,7 @@
         <v>-0.02799999999999997</v>
       </c>
       <c r="S10">
-        <v>-0.06200000000000006</v>
+        <v>-0.062</v>
       </c>
       <c r="T10">
         <v>-0.7</v>
@@ -1024,7 +1021,7 @@
         <v>-0.3</v>
       </c>
       <c r="V10">
-        <v>-0.2610000000000001</v>
+        <v>-0.261</v>
       </c>
       <c r="W10">
         <v>-0.09999999999999998</v>
@@ -1119,7 +1116,7 @@
         <v>2.2</v>
       </c>
       <c r="V11">
-        <v>0.8320000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="W11">
         <v>0.8</v>
@@ -1418,7 +1415,7 @@
         <v>3.5</v>
       </c>
       <c r="V15">
-        <v>0.8079999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="W15">
         <v>1.2</v>
@@ -1507,7 +1504,7 @@
         <v>0.578</v>
       </c>
       <c r="S16">
-        <v>0.5660000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="T16">
         <v>2.8</v>
@@ -1553,9 +1550,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>3.899999999999999</v>
-      </c>
       <c r="J17">
         <v>2.200000000000001</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>0.05299999999999994</v>
       </c>
       <c r="S17">
-        <v>0.01100000000000001</v>
+        <v>0.0109999999999999</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1593,7 +1587,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="V17">
-        <v>0.03800000000000003</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="W17">
         <v>-0.2</v>
@@ -1823,9 +1817,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>0.6000000000000014</v>
-      </c>
       <c r="J20">
         <v>-2.4</v>
       </c>
@@ -1931,7 +1922,7 @@
         <v>2.6</v>
       </c>
       <c r="O21">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P21">
         <v>6.4</v>
@@ -1943,7 +1934,7 @@
         <v>0.526</v>
       </c>
       <c r="S21">
-        <v>0.5489999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="T21">
         <v>3.3</v>
@@ -2081,9 +2072,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="I23">
-        <v>5.899999999999999</v>
-      </c>
       <c r="J23">
         <v>0.4000000000000004</v>
       </c>
@@ -2100,7 +2088,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="O23">
-        <v>-0.1040000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="P23">
         <v>0.7999999999999998</v>
@@ -2112,7 +2100,7 @@
         <v>-0.002000000000000002</v>
       </c>
       <c r="S23">
-        <v>-0.02799999999999991</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="T23">
         <v>-0.2999999999999998</v>
@@ -2189,7 +2177,7 @@
         <v>0.8</v>
       </c>
       <c r="O24">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="P24">
         <v>2.1</v>
@@ -2210,7 +2198,7 @@
         <v>1.9</v>
       </c>
       <c r="V24">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="W24">
         <v>0.6</v>
@@ -2339,9 +2327,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>1.1</v>
-      </c>
       <c r="J26">
         <v>-0.1000000000000001</v>
       </c>
@@ -2358,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>-0.1249999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="P26">
         <v>0.1000000000000001</v>
@@ -2370,7 +2355,7 @@
         <v>-0.02599999999999997</v>
       </c>
       <c r="S26">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="T26">
         <v>-0.5</v>
@@ -2379,7 +2364,7 @@
         <v>-0.09999999999999987</v>
       </c>
       <c r="V26">
-        <v>-0.2410000000000001</v>
+        <v>-0.241</v>
       </c>
       <c r="W26">
         <v>-0.09999999999999998</v>
@@ -2444,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="O27">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -2590,9 +2575,6 @@
     <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>27</v>
-      </c>
-      <c r="I29">
-        <v>-5.399999999999999</v>
       </c>
       <c r="J29">
         <v>-1.800000000000001</v>
@@ -2828,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="U2">
-        <v>0.8440000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="V2">
         <v>1.9</v>
@@ -2960,9 +2942,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-714</v>
-      </c>
       <c r="J4">
         <v>-0.9000000000000004</v>
       </c>
@@ -2997,7 +2976,7 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="U4">
-        <v>-0.2610000000000001</v>
+        <v>-0.261</v>
       </c>
       <c r="V4">
         <v>-0.5</v>
@@ -3089,7 +3068,7 @@
         <v>4.9</v>
       </c>
       <c r="U5">
-        <v>0.8320000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="V5">
         <v>1.8</v>
@@ -3379,7 +3358,7 @@
         <v>3.4</v>
       </c>
       <c r="U9">
-        <v>0.8079999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="V9">
         <v>1.2</v>
@@ -3511,9 +3490,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2864</v>
-      </c>
       <c r="J11">
         <v>1.199999999999999</v>
       </c>
@@ -3548,7 +3524,7 @@
         <v>-0.5</v>
       </c>
       <c r="U11">
-        <v>0.03800000000000003</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="V11">
         <v>-0.2999999999999999</v>
@@ -3772,9 +3748,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2467</v>
-      </c>
       <c r="J14">
         <v>-2.300000000000001</v>
       </c>
@@ -3877,7 +3850,7 @@
         <v>2.8</v>
       </c>
       <c r="O15">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P15">
         <v>6.8</v>
@@ -4021,9 +3994,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-6213</v>
-      </c>
       <c r="J17">
         <v>-0.7999999999999998</v>
       </c>
@@ -4040,7 +4010,7 @@
         <v>-0.9999999999999998</v>
       </c>
       <c r="O17">
-        <v>-0.1040000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="P17">
         <v>-0.2000000000000002</v>
@@ -4126,7 +4096,7 @@
         <v>2.6</v>
       </c>
       <c r="O18">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="P18">
         <v>6.7</v>
@@ -4144,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="U18">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="V18">
         <v>2</v>
@@ -4270,9 +4240,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>-847</v>
-      </c>
       <c r="J20">
         <v>-1</v>
       </c>
@@ -4289,7 +4256,7 @@
         <v>-0.3000000000000003</v>
       </c>
       <c r="O20">
-        <v>-0.1249999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="P20">
         <v>-0.6000000000000005</v>
@@ -4307,7 +4274,7 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="U20">
-        <v>-0.2410000000000001</v>
+        <v>-0.241</v>
       </c>
       <c r="V20">
         <v>-0.6000000000000001</v>
@@ -4372,7 +4339,7 @@
         <v>2.7</v>
       </c>
       <c r="O21">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P21">
         <v>6.8</v>
@@ -4512,9 +4479,6 @@
     <row r="23" spans="1:31">
       <c r="A23" s="1">
         <v>21</v>
-      </c>
-      <c r="I23">
-        <v>-7060</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -4754,7 +4718,7 @@
         <v>7.8</v>
       </c>
       <c r="U2">
-        <v>0.8440000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="V2">
         <v>2.4</v>
@@ -4898,9 +4862,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-714</v>
-      </c>
       <c r="J4">
         <v>-0.8000000000000007</v>
       </c>
@@ -4935,7 +4896,7 @@
         <v>-0.8999999999999995</v>
       </c>
       <c r="U4">
-        <v>-0.2610000000000001</v>
+        <v>-0.261</v>
       </c>
       <c r="V4">
         <v>-0.5</v>
@@ -5033,7 +4994,7 @@
         <v>6.5</v>
       </c>
       <c r="U5">
-        <v>0.8320000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="V5">
         <v>2.4</v>
@@ -5341,7 +5302,7 @@
         <v>4.6</v>
       </c>
       <c r="U9">
-        <v>0.8079999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="V9">
         <v>1.6</v>
@@ -5485,9 +5446,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2864</v>
-      </c>
       <c r="J11">
         <v>1.699999999999999</v>
       </c>
@@ -5522,7 +5480,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="U11">
-        <v>0.03800000000000003</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="V11">
         <v>-0.4000000000000001</v>
@@ -5764,9 +5722,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2467</v>
-      </c>
       <c r="J14">
         <v>-2.9</v>
       </c>
@@ -5875,7 +5830,7 @@
         <v>3.8</v>
       </c>
       <c r="O15">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P15">
         <v>9.4</v>
@@ -6031,9 +5986,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-6213</v>
-      </c>
       <c r="J17">
         <v>-0.8000000000000007</v>
       </c>
@@ -6050,7 +6002,7 @@
         <v>-1.2</v>
       </c>
       <c r="O17">
-        <v>-0.1040000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="P17">
         <v>-0.09999999999999964</v>
@@ -6142,7 +6094,7 @@
         <v>3.4</v>
       </c>
       <c r="O18">
-        <v>0.4379999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="P18">
         <v>8.699999999999999</v>
@@ -6160,7 +6112,7 @@
         <v>7.8</v>
       </c>
       <c r="U18">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="V18">
         <v>2.6</v>
@@ -6298,9 +6250,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="I20">
-        <v>-847</v>
-      </c>
       <c r="J20">
         <v>-1</v>
       </c>
@@ -6317,7 +6266,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="O20">
-        <v>-0.1249999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="P20">
         <v>-0.5</v>
@@ -6335,7 +6284,7 @@
         <v>-0.8999999999999995</v>
       </c>
       <c r="U20">
-        <v>-0.2410000000000001</v>
+        <v>-0.241</v>
       </c>
       <c r="V20">
         <v>-0.7000000000000002</v>
@@ -6406,7 +6355,7 @@
         <v>3.7</v>
       </c>
       <c r="O21">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="P21">
         <v>9.300000000000001</v>
@@ -6558,9 +6507,6 @@
     <row r="23" spans="1:34">
       <c r="A23" s="1">
         <v>21</v>
-      </c>
-      <c r="I23">
-        <v>-7060</v>
       </c>
       <c r="J23">
         <v>-1.200000000000001</v>
@@ -6919,9 +6865,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>-714</v>
-      </c>
       <c r="I4">
         <v>-6</v>
       </c>
@@ -6929,7 +6872,7 @@
         <v>-0.09699999999999998</v>
       </c>
       <c r="K4">
-        <v>-0.02600000000000002</v>
+        <v>-0.026</v>
       </c>
       <c r="L4">
         <v>-0.04499999999999998</v>
@@ -7284,7 +7227,7 @@
         <v>15.8</v>
       </c>
       <c r="J9">
-        <v>0.5870000000000001</v>
+        <v>0.587</v>
       </c>
       <c r="K9">
         <v>0.211</v>
@@ -7437,17 +7380,14 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>-2864</v>
-      </c>
       <c r="I11">
         <v>0.8000000000000007</v>
       </c>
       <c r="J11">
-        <v>0.005999999999999894</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="K11">
-        <v>-0.05300000000000002</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="L11">
         <v>-0.04699999999999999</v>
@@ -7683,9 +7623,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="H14">
-        <v>-2467</v>
-      </c>
       <c r="I14">
         <v>-11.7</v>
       </c>
@@ -7770,7 +7707,7 @@
         <v>16.5</v>
       </c>
       <c r="J15">
-        <v>0.5920000000000001</v>
+        <v>0.592</v>
       </c>
       <c r="K15">
         <v>0.175</v>
@@ -7853,7 +7790,7 @@
         <v>10.6</v>
       </c>
       <c r="J16">
-        <v>0.5589999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="K16">
         <v>0.127</v>
@@ -7917,20 +7854,17 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>-6213</v>
-      </c>
       <c r="I17">
         <v>-5.9</v>
       </c>
       <c r="J17">
-        <v>-0.03300000000000014</v>
+        <v>-0.03299999999999992</v>
       </c>
       <c r="K17">
         <v>-0.04799999999999999</v>
       </c>
       <c r="L17">
-        <v>-0.03400000000000003</v>
+        <v>-0.034</v>
       </c>
       <c r="M17">
         <v>-0.9999999999999998</v>
@@ -8151,9 +8085,6 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="H20">
-        <v>-847</v>
-      </c>
       <c r="I20">
         <v>-6</v>
       </c>
@@ -8357,7 +8288,7 @@
         <v>0.1</v>
       </c>
       <c r="Y22">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1.9</v>
@@ -8379,9 +8310,6 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H23">
-        <v>-7060</v>
-      </c>
       <c r="I23">
         <v>-6.199999999999999</v>
       </c>
@@ -8389,7 +8317,7 @@
         <v>-0.06099999999999994</v>
       </c>
       <c r="K23">
-        <v>-0.03800000000000001</v>
+        <v>-0.03799999999999998</v>
       </c>
       <c r="L23">
         <v>-0.006000000000000005</v>

--- a/output/petrodr01.xlsx
+++ b/output/petrodr01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>
